--- a/excel/finished/wg8#高炉/8高炉冷却水冷却壁月报.xlsx
+++ b/excel/finished/wg8#高炉/8高炉冷却水冷却壁月报.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{305F4B09-7D4F-4362-8176-B3F2283FF274}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72CC208E-0DB4-46BC-B80C-02A911F5F408}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1200" yWindow="-120" windowWidth="27720" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -295,10 +295,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="177" formatCode="0_ "/>
-    <numFmt numFmtId="179" formatCode="0.0_ "/>
+    <numFmt numFmtId="178" formatCode="0.0_ "/>
+    <numFmt numFmtId="180" formatCode="0.00_ ;[Red]\-0.00\ "/>
   </numFmts>
   <fonts count="12">
     <font>
@@ -594,7 +595,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="177" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -606,9 +607,6 @@
     <xf numFmtId="177" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -636,7 +634,7 @@
       <alignment vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="179" fontId="8" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="8" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection hidden="1"/>
     </xf>
@@ -652,7 +650,7 @@
       <alignment vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="179" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection hidden="1"/>
     </xf>
@@ -661,14 +659,17 @@
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="176" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="fill"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="fill" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -726,17 +727,28 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="8" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="fill"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="fill" vertical="center"/>
+    <xf numFmtId="180" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1080,7 +1092,7 @@
   <dimension ref="A1:BI39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection sqref="A1:BI1"/>
+      <selection activeCell="M5" sqref="M5:M39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1293,369 +1305,369 @@
       </c>
       <c r="AV3" s="30"/>
       <c r="AW3" s="30"/>
-      <c r="AX3" s="19" t="s">
+      <c r="AX3" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="AY3" s="20"/>
-      <c r="AZ3" s="21"/>
+      <c r="AY3" s="37"/>
+      <c r="AZ3" s="38"/>
     </row>
     <row r="4" spans="1:61" ht="14.25" thickBot="1">
       <c r="A4" s="25"/>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="J4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="K4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="L4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="M4" s="6" t="s">
+      <c r="M4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="N4" s="6" t="s">
+      <c r="N4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="O4" s="6" t="s">
+      <c r="O4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="P4" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="Q4" s="6" t="s">
+      <c r="Q4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="R4" s="6" t="s">
+      <c r="R4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="S4" s="7" t="s">
+      <c r="S4" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="T4" s="6" t="s">
+      <c r="T4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="U4" s="6" t="s">
+      <c r="U4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="V4" s="7" t="s">
+      <c r="V4" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="W4" s="6" t="s">
+      <c r="W4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="X4" s="6" t="s">
+      <c r="X4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="Y4" s="7" t="s">
+      <c r="Y4" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="Z4" s="6" t="s">
+      <c r="Z4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="AA4" s="6" t="s">
+      <c r="AA4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="AB4" s="7" t="s">
+      <c r="AB4" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="AC4" s="6" t="s">
+      <c r="AC4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="AD4" s="6" t="s">
+      <c r="AD4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="AE4" s="7" t="s">
+      <c r="AE4" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="AF4" s="6" t="s">
+      <c r="AF4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="AG4" s="6" t="s">
+      <c r="AG4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="AH4" s="7" t="s">
+      <c r="AH4" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="AI4" s="6" t="s">
+      <c r="AI4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="AJ4" s="6" t="s">
+      <c r="AJ4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="AK4" s="7" t="s">
+      <c r="AK4" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="AL4" s="6" t="s">
+      <c r="AL4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="AM4" s="6" t="s">
+      <c r="AM4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="AN4" s="7" t="s">
+      <c r="AN4" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="AO4" s="6" t="s">
+      <c r="AO4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="AP4" s="6" t="s">
+      <c r="AP4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="AQ4" s="7" t="s">
+      <c r="AQ4" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="AR4" s="6" t="s">
+      <c r="AR4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="AS4" s="6" t="s">
+      <c r="AS4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="AT4" s="7" t="s">
+      <c r="AT4" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="AU4" s="6" t="s">
+      <c r="AU4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="AV4" s="6" t="s">
+      <c r="AV4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="AW4" s="7" t="s">
+      <c r="AW4" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="AX4" s="8" t="s">
+      <c r="AX4" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="AY4" s="8" t="s">
+      <c r="AY4" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="AZ4" s="9" t="s">
+      <c r="AZ4" s="8" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:61">
-      <c r="A5" s="5">
+      <c r="A5" s="4">
         <v>1</v>
       </c>
-      <c r="B5" s="37" t="str">
+      <c r="B5" s="19" t="str">
         <f>IF(_data!A4="","",_data!A4)</f>
         <v/>
       </c>
-      <c r="C5" s="37" t="str">
+      <c r="C5" s="19" t="str">
         <f>IF(_data!B4="","",_data!B4)</f>
         <v/>
       </c>
-      <c r="D5" s="37" t="str">
+      <c r="D5" s="19" t="str">
         <f>IF(_data!C4="","",_data!C4)</f>
         <v/>
       </c>
-      <c r="E5" s="37" t="str">
+      <c r="E5" s="39" t="str">
         <f>IF(_data!D4="","",_data!D4)</f>
         <v/>
       </c>
-      <c r="F5" s="37" t="str">
+      <c r="F5" s="19" t="str">
         <f>IF(_data!E4="","",_data!E4)</f>
         <v/>
       </c>
-      <c r="G5" s="37" t="str">
+      <c r="G5" s="19" t="str">
         <f>IF(_data!F4="","",_data!F4)</f>
         <v/>
       </c>
-      <c r="H5" s="37" t="str">
+      <c r="H5" s="19" t="str">
         <f>IF(_data!G4="","",_data!G4)</f>
         <v/>
       </c>
-      <c r="I5" s="37" t="str">
+      <c r="I5" s="39" t="str">
         <f>IF(_data!H4="","",_data!H4)</f>
         <v/>
       </c>
-      <c r="J5" s="37" t="str">
+      <c r="J5" s="19" t="str">
         <f>IF(_data!I4="","",_data!I4)</f>
         <v/>
       </c>
-      <c r="K5" s="37" t="str">
+      <c r="K5" s="19" t="str">
         <f>IF(_data!J4="","",_data!J4)</f>
         <v/>
       </c>
-      <c r="L5" s="37" t="str">
+      <c r="L5" s="19" t="str">
         <f>IF(_data!K4="","",_data!K4)</f>
         <v/>
       </c>
-      <c r="M5" s="37" t="str">
+      <c r="M5" s="39" t="str">
         <f>IF(_data!L4="","",_data!L4)</f>
         <v/>
       </c>
-      <c r="N5" s="37" t="str">
+      <c r="N5" s="19" t="str">
         <f>IF(_data!M4="","",_data!M4)</f>
         <v/>
       </c>
-      <c r="O5" s="37" t="str">
+      <c r="O5" s="19" t="str">
         <f>IF(_data!N4="","",_data!N4)</f>
         <v/>
       </c>
-      <c r="P5" s="37" t="str">
+      <c r="P5" s="19" t="str">
         <f>IF(_data!O4="","",_data!O4)</f>
         <v/>
       </c>
-      <c r="Q5" s="37" t="str">
+      <c r="Q5" s="19" t="str">
         <f>IF(_data!P4="","",_data!P4)</f>
         <v/>
       </c>
-      <c r="R5" s="37" t="str">
+      <c r="R5" s="19" t="str">
         <f>IF(_data!Q4="","",_data!Q4)</f>
         <v/>
       </c>
-      <c r="S5" s="37" t="str">
+      <c r="S5" s="19" t="str">
         <f>IF(_data!R4="","",_data!R4)</f>
         <v/>
       </c>
-      <c r="T5" s="37" t="str">
+      <c r="T5" s="19" t="str">
         <f>IF(_data!S4="","",_data!S4)</f>
         <v/>
       </c>
-      <c r="U5" s="37" t="str">
+      <c r="U5" s="19" t="str">
         <f>IF(_data!T4="","",_data!T4)</f>
         <v/>
       </c>
-      <c r="V5" s="37" t="str">
+      <c r="V5" s="19" t="str">
         <f>IF(_data!U4="","",_data!U4)</f>
         <v/>
       </c>
-      <c r="W5" s="37" t="str">
+      <c r="W5" s="19" t="str">
         <f>IF(_data!V4="","",_data!V4)</f>
         <v/>
       </c>
-      <c r="X5" s="37" t="str">
+      <c r="X5" s="19" t="str">
         <f>IF(_data!W4="","",_data!W4)</f>
         <v/>
       </c>
-      <c r="Y5" s="37" t="str">
+      <c r="Y5" s="19" t="str">
         <f>IF(_data!X4="","",_data!X4)</f>
         <v/>
       </c>
-      <c r="Z5" s="37" t="str">
+      <c r="Z5" s="19" t="str">
         <f>IF(_data!Y4="","",_data!Y4)</f>
         <v/>
       </c>
-      <c r="AA5" s="37" t="str">
+      <c r="AA5" s="19" t="str">
         <f>IF(_data!Z4="","",_data!Z4)</f>
         <v/>
       </c>
-      <c r="AB5" s="37" t="str">
+      <c r="AB5" s="19" t="str">
         <f>IF(_data!AA4="","",_data!AA4)</f>
         <v/>
       </c>
-      <c r="AC5" s="37" t="str">
+      <c r="AC5" s="19" t="str">
         <f>IF(_data!AB4="","",_data!AB4)</f>
         <v/>
       </c>
-      <c r="AD5" s="37" t="str">
+      <c r="AD5" s="19" t="str">
         <f>IF(_data!AC4="","",_data!AC4)</f>
         <v/>
       </c>
-      <c r="AE5" s="37" t="str">
+      <c r="AE5" s="19" t="str">
         <f>IF(_data!AD4="","",_data!AD4)</f>
         <v/>
       </c>
-      <c r="AF5" s="37" t="str">
+      <c r="AF5" s="19" t="str">
         <f>IF(_data!AE4="","",_data!AE4)</f>
         <v/>
       </c>
-      <c r="AG5" s="37" t="str">
+      <c r="AG5" s="19" t="str">
         <f>IF(_data!AF4="","",_data!AF4)</f>
         <v/>
       </c>
-      <c r="AH5" s="37" t="str">
+      <c r="AH5" s="19" t="str">
         <f>IF(_data!AG4="","",_data!AG4)</f>
         <v/>
       </c>
-      <c r="AI5" s="37" t="str">
+      <c r="AI5" s="19" t="str">
         <f>IF(_data!AH4="","",_data!AH4)</f>
         <v/>
       </c>
-      <c r="AJ5" s="37" t="str">
+      <c r="AJ5" s="19" t="str">
         <f>IF(_data!AI4="","",_data!AI4)</f>
         <v/>
       </c>
-      <c r="AK5" s="37" t="str">
+      <c r="AK5" s="19" t="str">
         <f>IF(_data!AJ4="","",_data!AJ4)</f>
         <v/>
       </c>
-      <c r="AL5" s="37" t="str">
+      <c r="AL5" s="19" t="str">
         <f>IF(_data!AK4="","",_data!AK4)</f>
         <v/>
       </c>
-      <c r="AM5" s="37" t="str">
+      <c r="AM5" s="19" t="str">
         <f>IF(_data!AL4="","",_data!AL4)</f>
         <v/>
       </c>
-      <c r="AN5" s="37" t="str">
+      <c r="AN5" s="19" t="str">
         <f>IF(_data!AM4="","",_data!AM4)</f>
         <v/>
       </c>
-      <c r="AO5" s="37" t="str">
+      <c r="AO5" s="19" t="str">
         <f>IF(_data!AN4="","",_data!AN4)</f>
         <v/>
       </c>
-      <c r="AP5" s="37" t="str">
+      <c r="AP5" s="19" t="str">
         <f>IF(_data!AO4="","",_data!AO4)</f>
         <v/>
       </c>
-      <c r="AQ5" s="37" t="str">
+      <c r="AQ5" s="19" t="str">
         <f>IF(_data!AP4="","",_data!AP4)</f>
         <v/>
       </c>
-      <c r="AR5" s="37" t="str">
+      <c r="AR5" s="19" t="str">
         <f>IF(_data!AQ4="","",_data!AQ4)</f>
         <v/>
       </c>
-      <c r="AS5" s="37" t="str">
+      <c r="AS5" s="19" t="str">
         <f>IF(_data!AR4="","",_data!AR4)</f>
         <v/>
       </c>
-      <c r="AT5" s="37" t="str">
+      <c r="AT5" s="19" t="str">
         <f>IF(_data!AS4="","",_data!AS4)</f>
         <v/>
       </c>
-      <c r="AU5" s="37" t="str">
+      <c r="AU5" s="19" t="str">
         <f>IF(_data!AT4="","",_data!AT4)</f>
         <v/>
       </c>
-      <c r="AV5" s="37" t="str">
+      <c r="AV5" s="19" t="str">
         <f>IF(_data!AU4="","",_data!AU4)</f>
         <v/>
       </c>
-      <c r="AW5" s="37" t="str">
+      <c r="AW5" s="19" t="str">
         <f>IF(_data!AV4="","",_data!AV4)</f>
         <v/>
       </c>
-      <c r="AX5" s="37" t="str">
+      <c r="AX5" s="19" t="str">
         <f>IF(_data!AW4="","",_data!AW4)</f>
         <v/>
       </c>
-      <c r="AY5" s="37" t="str">
+      <c r="AY5" s="19" t="str">
         <f>IF(_data!AX4="","",_data!AX4)</f>
         <v/>
       </c>
@@ -1668,207 +1680,207 @@
       <c r="A6" s="2">
         <v>2</v>
       </c>
-      <c r="B6" s="37" t="str">
+      <c r="B6" s="19" t="str">
         <f>IF(_data!A5="","",_data!A5)</f>
         <v/>
       </c>
-      <c r="C6" s="37" t="str">
+      <c r="C6" s="19" t="str">
         <f>IF(_data!B5="","",_data!B5)</f>
         <v/>
       </c>
-      <c r="D6" s="37" t="str">
+      <c r="D6" s="19" t="str">
         <f>IF(_data!C5="","",_data!C5)</f>
         <v/>
       </c>
-      <c r="E6" s="37" t="str">
+      <c r="E6" s="39" t="str">
         <f>IF(_data!D5="","",_data!D5)</f>
         <v/>
       </c>
-      <c r="F6" s="37" t="str">
+      <c r="F6" s="19" t="str">
         <f>IF(_data!E5="","",_data!E5)</f>
         <v/>
       </c>
-      <c r="G6" s="37" t="str">
+      <c r="G6" s="19" t="str">
         <f>IF(_data!F5="","",_data!F5)</f>
         <v/>
       </c>
-      <c r="H6" s="37" t="str">
+      <c r="H6" s="19" t="str">
         <f>IF(_data!G5="","",_data!G5)</f>
         <v/>
       </c>
-      <c r="I6" s="37" t="str">
+      <c r="I6" s="39" t="str">
         <f>IF(_data!H5="","",_data!H5)</f>
         <v/>
       </c>
-      <c r="J6" s="37" t="str">
+      <c r="J6" s="19" t="str">
         <f>IF(_data!I5="","",_data!I5)</f>
         <v/>
       </c>
-      <c r="K6" s="37" t="str">
+      <c r="K6" s="19" t="str">
         <f>IF(_data!J5="","",_data!J5)</f>
         <v/>
       </c>
-      <c r="L6" s="37" t="str">
+      <c r="L6" s="19" t="str">
         <f>IF(_data!K5="","",_data!K5)</f>
         <v/>
       </c>
-      <c r="M6" s="37" t="str">
+      <c r="M6" s="39" t="str">
         <f>IF(_data!L5="","",_data!L5)</f>
         <v/>
       </c>
-      <c r="N6" s="37" t="str">
+      <c r="N6" s="19" t="str">
         <f>IF(_data!M5="","",_data!M5)</f>
         <v/>
       </c>
-      <c r="O6" s="37" t="str">
+      <c r="O6" s="19" t="str">
         <f>IF(_data!N5="","",_data!N5)</f>
         <v/>
       </c>
-      <c r="P6" s="37" t="str">
+      <c r="P6" s="19" t="str">
         <f>IF(_data!O5="","",_data!O5)</f>
         <v/>
       </c>
-      <c r="Q6" s="37" t="str">
+      <c r="Q6" s="19" t="str">
         <f>IF(_data!P5="","",_data!P5)</f>
         <v/>
       </c>
-      <c r="R6" s="37" t="str">
+      <c r="R6" s="19" t="str">
         <f>IF(_data!Q5="","",_data!Q5)</f>
         <v/>
       </c>
-      <c r="S6" s="37" t="str">
+      <c r="S6" s="19" t="str">
         <f>IF(_data!R5="","",_data!R5)</f>
         <v/>
       </c>
-      <c r="T6" s="37" t="str">
+      <c r="T6" s="19" t="str">
         <f>IF(_data!S5="","",_data!S5)</f>
         <v/>
       </c>
-      <c r="U6" s="37" t="str">
+      <c r="U6" s="19" t="str">
         <f>IF(_data!T5="","",_data!T5)</f>
         <v/>
       </c>
-      <c r="V6" s="37" t="str">
+      <c r="V6" s="19" t="str">
         <f>IF(_data!U5="","",_data!U5)</f>
         <v/>
       </c>
-      <c r="W6" s="37" t="str">
+      <c r="W6" s="19" t="str">
         <f>IF(_data!V5="","",_data!V5)</f>
         <v/>
       </c>
-      <c r="X6" s="37" t="str">
+      <c r="X6" s="19" t="str">
         <f>IF(_data!W5="","",_data!W5)</f>
         <v/>
       </c>
-      <c r="Y6" s="37" t="str">
+      <c r="Y6" s="19" t="str">
         <f>IF(_data!X5="","",_data!X5)</f>
         <v/>
       </c>
-      <c r="Z6" s="37" t="str">
+      <c r="Z6" s="19" t="str">
         <f>IF(_data!Y5="","",_data!Y5)</f>
         <v/>
       </c>
-      <c r="AA6" s="37" t="str">
+      <c r="AA6" s="19" t="str">
         <f>IF(_data!Z5="","",_data!Z5)</f>
         <v/>
       </c>
-      <c r="AB6" s="37" t="str">
+      <c r="AB6" s="19" t="str">
         <f>IF(_data!AA5="","",_data!AA5)</f>
         <v/>
       </c>
-      <c r="AC6" s="37" t="str">
+      <c r="AC6" s="19" t="str">
         <f>IF(_data!AB5="","",_data!AB5)</f>
         <v/>
       </c>
-      <c r="AD6" s="37" t="str">
+      <c r="AD6" s="19" t="str">
         <f>IF(_data!AC5="","",_data!AC5)</f>
         <v/>
       </c>
-      <c r="AE6" s="37" t="str">
+      <c r="AE6" s="19" t="str">
         <f>IF(_data!AD5="","",_data!AD5)</f>
         <v/>
       </c>
-      <c r="AF6" s="37" t="str">
+      <c r="AF6" s="19" t="str">
         <f>IF(_data!AE5="","",_data!AE5)</f>
         <v/>
       </c>
-      <c r="AG6" s="37" t="str">
+      <c r="AG6" s="19" t="str">
         <f>IF(_data!AF5="","",_data!AF5)</f>
         <v/>
       </c>
-      <c r="AH6" s="37" t="str">
+      <c r="AH6" s="19" t="str">
         <f>IF(_data!AG5="","",_data!AG5)</f>
         <v/>
       </c>
-      <c r="AI6" s="37" t="str">
+      <c r="AI6" s="19" t="str">
         <f>IF(_data!AH5="","",_data!AH5)</f>
         <v/>
       </c>
-      <c r="AJ6" s="37" t="str">
+      <c r="AJ6" s="19" t="str">
         <f>IF(_data!AI5="","",_data!AI5)</f>
         <v/>
       </c>
-      <c r="AK6" s="37" t="str">
+      <c r="AK6" s="19" t="str">
         <f>IF(_data!AJ5="","",_data!AJ5)</f>
         <v/>
       </c>
-      <c r="AL6" s="37" t="str">
+      <c r="AL6" s="19" t="str">
         <f>IF(_data!AK5="","",_data!AK5)</f>
         <v/>
       </c>
-      <c r="AM6" s="37" t="str">
+      <c r="AM6" s="19" t="str">
         <f>IF(_data!AL5="","",_data!AL5)</f>
         <v/>
       </c>
-      <c r="AN6" s="37" t="str">
+      <c r="AN6" s="19" t="str">
         <f>IF(_data!AM5="","",_data!AM5)</f>
         <v/>
       </c>
-      <c r="AO6" s="37" t="str">
+      <c r="AO6" s="19" t="str">
         <f>IF(_data!AN5="","",_data!AN5)</f>
         <v/>
       </c>
-      <c r="AP6" s="37" t="str">
+      <c r="AP6" s="19" t="str">
         <f>IF(_data!AO5="","",_data!AO5)</f>
         <v/>
       </c>
-      <c r="AQ6" s="37" t="str">
+      <c r="AQ6" s="19" t="str">
         <f>IF(_data!AP5="","",_data!AP5)</f>
         <v/>
       </c>
-      <c r="AR6" s="37" t="str">
+      <c r="AR6" s="19" t="str">
         <f>IF(_data!AQ5="","",_data!AQ5)</f>
         <v/>
       </c>
-      <c r="AS6" s="37" t="str">
+      <c r="AS6" s="19" t="str">
         <f>IF(_data!AR5="","",_data!AR5)</f>
         <v/>
       </c>
-      <c r="AT6" s="37" t="str">
+      <c r="AT6" s="19" t="str">
         <f>IF(_data!AS5="","",_data!AS5)</f>
         <v/>
       </c>
-      <c r="AU6" s="37" t="str">
+      <c r="AU6" s="19" t="str">
         <f>IF(_data!AT5="","",_data!AT5)</f>
         <v/>
       </c>
-      <c r="AV6" s="37" t="str">
+      <c r="AV6" s="19" t="str">
         <f>IF(_data!AU5="","",_data!AU5)</f>
         <v/>
       </c>
-      <c r="AW6" s="37" t="str">
+      <c r="AW6" s="19" t="str">
         <f>IF(_data!AV5="","",_data!AV5)</f>
         <v/>
       </c>
-      <c r="AX6" s="37" t="str">
+      <c r="AX6" s="19" t="str">
         <f>IF(_data!AW5="","",_data!AW5)</f>
         <v/>
       </c>
-      <c r="AY6" s="37" t="str">
+      <c r="AY6" s="19" t="str">
         <f>IF(_data!AX5="","",_data!AX5)</f>
         <v/>
       </c>
-      <c r="AZ6" s="4" t="str">
+      <c r="AZ6" s="3" t="str">
         <f>IF(_data!AY5="","",_data!AY5)</f>
         <v/>
       </c>
@@ -1877,207 +1889,207 @@
       <c r="A7" s="2">
         <v>3</v>
       </c>
-      <c r="B7" s="37" t="str">
+      <c r="B7" s="19" t="str">
         <f>IF(_data!A6="","",_data!A6)</f>
         <v/>
       </c>
-      <c r="C7" s="37" t="str">
+      <c r="C7" s="19" t="str">
         <f>IF(_data!B6="","",_data!B6)</f>
         <v/>
       </c>
-      <c r="D7" s="37" t="str">
+      <c r="D7" s="19" t="str">
         <f>IF(_data!C6="","",_data!C6)</f>
         <v/>
       </c>
-      <c r="E7" s="37" t="str">
+      <c r="E7" s="39" t="str">
         <f>IF(_data!D6="","",_data!D6)</f>
         <v/>
       </c>
-      <c r="F7" s="37" t="str">
+      <c r="F7" s="19" t="str">
         <f>IF(_data!E6="","",_data!E6)</f>
         <v/>
       </c>
-      <c r="G7" s="37" t="str">
+      <c r="G7" s="19" t="str">
         <f>IF(_data!F6="","",_data!F6)</f>
         <v/>
       </c>
-      <c r="H7" s="37" t="str">
+      <c r="H7" s="19" t="str">
         <f>IF(_data!G6="","",_data!G6)</f>
         <v/>
       </c>
-      <c r="I7" s="37" t="str">
+      <c r="I7" s="39" t="str">
         <f>IF(_data!H6="","",_data!H6)</f>
         <v/>
       </c>
-      <c r="J7" s="37" t="str">
+      <c r="J7" s="19" t="str">
         <f>IF(_data!I6="","",_data!I6)</f>
         <v/>
       </c>
-      <c r="K7" s="37" t="str">
+      <c r="K7" s="19" t="str">
         <f>IF(_data!J6="","",_data!J6)</f>
         <v/>
       </c>
-      <c r="L7" s="37" t="str">
+      <c r="L7" s="19" t="str">
         <f>IF(_data!K6="","",_data!K6)</f>
         <v/>
       </c>
-      <c r="M7" s="37" t="str">
+      <c r="M7" s="39" t="str">
         <f>IF(_data!L6="","",_data!L6)</f>
         <v/>
       </c>
-      <c r="N7" s="37" t="str">
+      <c r="N7" s="19" t="str">
         <f>IF(_data!M6="","",_data!M6)</f>
         <v/>
       </c>
-      <c r="O7" s="37" t="str">
+      <c r="O7" s="19" t="str">
         <f>IF(_data!N6="","",_data!N6)</f>
         <v/>
       </c>
-      <c r="P7" s="37" t="str">
+      <c r="P7" s="19" t="str">
         <f>IF(_data!O6="","",_data!O6)</f>
         <v/>
       </c>
-      <c r="Q7" s="37" t="str">
+      <c r="Q7" s="19" t="str">
         <f>IF(_data!P6="","",_data!P6)</f>
         <v/>
       </c>
-      <c r="R7" s="37" t="str">
+      <c r="R7" s="19" t="str">
         <f>IF(_data!Q6="","",_data!Q6)</f>
         <v/>
       </c>
-      <c r="S7" s="37" t="str">
+      <c r="S7" s="19" t="str">
         <f>IF(_data!R6="","",_data!R6)</f>
         <v/>
       </c>
-      <c r="T7" s="37" t="str">
+      <c r="T7" s="19" t="str">
         <f>IF(_data!S6="","",_data!S6)</f>
         <v/>
       </c>
-      <c r="U7" s="37" t="str">
+      <c r="U7" s="19" t="str">
         <f>IF(_data!T6="","",_data!T6)</f>
         <v/>
       </c>
-      <c r="V7" s="37" t="str">
+      <c r="V7" s="19" t="str">
         <f>IF(_data!U6="","",_data!U6)</f>
         <v/>
       </c>
-      <c r="W7" s="37" t="str">
+      <c r="W7" s="19" t="str">
         <f>IF(_data!V6="","",_data!V6)</f>
         <v/>
       </c>
-      <c r="X7" s="37" t="str">
+      <c r="X7" s="19" t="str">
         <f>IF(_data!W6="","",_data!W6)</f>
         <v/>
       </c>
-      <c r="Y7" s="37" t="str">
+      <c r="Y7" s="19" t="str">
         <f>IF(_data!X6="","",_data!X6)</f>
         <v/>
       </c>
-      <c r="Z7" s="37" t="str">
+      <c r="Z7" s="19" t="str">
         <f>IF(_data!Y6="","",_data!Y6)</f>
         <v/>
       </c>
-      <c r="AA7" s="37" t="str">
+      <c r="AA7" s="19" t="str">
         <f>IF(_data!Z6="","",_data!Z6)</f>
         <v/>
       </c>
-      <c r="AB7" s="37" t="str">
+      <c r="AB7" s="19" t="str">
         <f>IF(_data!AA6="","",_data!AA6)</f>
         <v/>
       </c>
-      <c r="AC7" s="37" t="str">
+      <c r="AC7" s="19" t="str">
         <f>IF(_data!AB6="","",_data!AB6)</f>
         <v/>
       </c>
-      <c r="AD7" s="37" t="str">
+      <c r="AD7" s="19" t="str">
         <f>IF(_data!AC6="","",_data!AC6)</f>
         <v/>
       </c>
-      <c r="AE7" s="37" t="str">
+      <c r="AE7" s="19" t="str">
         <f>IF(_data!AD6="","",_data!AD6)</f>
         <v/>
       </c>
-      <c r="AF7" s="37" t="str">
+      <c r="AF7" s="19" t="str">
         <f>IF(_data!AE6="","",_data!AE6)</f>
         <v/>
       </c>
-      <c r="AG7" s="37" t="str">
+      <c r="AG7" s="19" t="str">
         <f>IF(_data!AF6="","",_data!AF6)</f>
         <v/>
       </c>
-      <c r="AH7" s="37" t="str">
+      <c r="AH7" s="19" t="str">
         <f>IF(_data!AG6="","",_data!AG6)</f>
         <v/>
       </c>
-      <c r="AI7" s="37" t="str">
+      <c r="AI7" s="19" t="str">
         <f>IF(_data!AH6="","",_data!AH6)</f>
         <v/>
       </c>
-      <c r="AJ7" s="37" t="str">
+      <c r="AJ7" s="19" t="str">
         <f>IF(_data!AI6="","",_data!AI6)</f>
         <v/>
       </c>
-      <c r="AK7" s="37" t="str">
+      <c r="AK7" s="19" t="str">
         <f>IF(_data!AJ6="","",_data!AJ6)</f>
         <v/>
       </c>
-      <c r="AL7" s="37" t="str">
+      <c r="AL7" s="19" t="str">
         <f>IF(_data!AK6="","",_data!AK6)</f>
         <v/>
       </c>
-      <c r="AM7" s="37" t="str">
+      <c r="AM7" s="19" t="str">
         <f>IF(_data!AL6="","",_data!AL6)</f>
         <v/>
       </c>
-      <c r="AN7" s="37" t="str">
+      <c r="AN7" s="19" t="str">
         <f>IF(_data!AM6="","",_data!AM6)</f>
         <v/>
       </c>
-      <c r="AO7" s="37" t="str">
+      <c r="AO7" s="19" t="str">
         <f>IF(_data!AN6="","",_data!AN6)</f>
         <v/>
       </c>
-      <c r="AP7" s="37" t="str">
+      <c r="AP7" s="19" t="str">
         <f>IF(_data!AO6="","",_data!AO6)</f>
         <v/>
       </c>
-      <c r="AQ7" s="37" t="str">
+      <c r="AQ7" s="19" t="str">
         <f>IF(_data!AP6="","",_data!AP6)</f>
         <v/>
       </c>
-      <c r="AR7" s="37" t="str">
+      <c r="AR7" s="19" t="str">
         <f>IF(_data!AQ6="","",_data!AQ6)</f>
         <v/>
       </c>
-      <c r="AS7" s="37" t="str">
+      <c r="AS7" s="19" t="str">
         <f>IF(_data!AR6="","",_data!AR6)</f>
         <v/>
       </c>
-      <c r="AT7" s="37" t="str">
+      <c r="AT7" s="19" t="str">
         <f>IF(_data!AS6="","",_data!AS6)</f>
         <v/>
       </c>
-      <c r="AU7" s="37" t="str">
+      <c r="AU7" s="19" t="str">
         <f>IF(_data!AT6="","",_data!AT6)</f>
         <v/>
       </c>
-      <c r="AV7" s="37" t="str">
+      <c r="AV7" s="19" t="str">
         <f>IF(_data!AU6="","",_data!AU6)</f>
         <v/>
       </c>
-      <c r="AW7" s="37" t="str">
+      <c r="AW7" s="19" t="str">
         <f>IF(_data!AV6="","",_data!AV6)</f>
         <v/>
       </c>
-      <c r="AX7" s="37" t="str">
+      <c r="AX7" s="19" t="str">
         <f>IF(_data!AW6="","",_data!AW6)</f>
         <v/>
       </c>
-      <c r="AY7" s="37" t="str">
+      <c r="AY7" s="19" t="str">
         <f>IF(_data!AX6="","",_data!AX6)</f>
         <v/>
       </c>
-      <c r="AZ7" s="4" t="str">
+      <c r="AZ7" s="3" t="str">
         <f>IF(_data!AY6="","",_data!AY6)</f>
         <v/>
       </c>
@@ -2086,207 +2098,207 @@
       <c r="A8" s="2">
         <v>4</v>
       </c>
-      <c r="B8" s="37" t="str">
+      <c r="B8" s="19" t="str">
         <f>IF(_data!A7="","",_data!A7)</f>
         <v/>
       </c>
-      <c r="C8" s="37" t="str">
+      <c r="C8" s="19" t="str">
         <f>IF(_data!B7="","",_data!B7)</f>
         <v/>
       </c>
-      <c r="D8" s="37" t="str">
+      <c r="D8" s="19" t="str">
         <f>IF(_data!C7="","",_data!C7)</f>
         <v/>
       </c>
-      <c r="E8" s="37" t="str">
+      <c r="E8" s="39" t="str">
         <f>IF(_data!D7="","",_data!D7)</f>
         <v/>
       </c>
-      <c r="F8" s="37" t="str">
+      <c r="F8" s="19" t="str">
         <f>IF(_data!E7="","",_data!E7)</f>
         <v/>
       </c>
-      <c r="G8" s="37" t="str">
+      <c r="G8" s="19" t="str">
         <f>IF(_data!F7="","",_data!F7)</f>
         <v/>
       </c>
-      <c r="H8" s="37" t="str">
+      <c r="H8" s="19" t="str">
         <f>IF(_data!G7="","",_data!G7)</f>
         <v/>
       </c>
-      <c r="I8" s="37" t="str">
+      <c r="I8" s="39" t="str">
         <f>IF(_data!H7="","",_data!H7)</f>
         <v/>
       </c>
-      <c r="J8" s="37" t="str">
+      <c r="J8" s="19" t="str">
         <f>IF(_data!I7="","",_data!I7)</f>
         <v/>
       </c>
-      <c r="K8" s="37" t="str">
+      <c r="K8" s="19" t="str">
         <f>IF(_data!J7="","",_data!J7)</f>
         <v/>
       </c>
-      <c r="L8" s="37" t="str">
+      <c r="L8" s="19" t="str">
         <f>IF(_data!K7="","",_data!K7)</f>
         <v/>
       </c>
-      <c r="M8" s="37" t="str">
+      <c r="M8" s="39" t="str">
         <f>IF(_data!L7="","",_data!L7)</f>
         <v/>
       </c>
-      <c r="N8" s="37" t="str">
+      <c r="N8" s="19" t="str">
         <f>IF(_data!M7="","",_data!M7)</f>
         <v/>
       </c>
-      <c r="O8" s="37" t="str">
+      <c r="O8" s="19" t="str">
         <f>IF(_data!N7="","",_data!N7)</f>
         <v/>
       </c>
-      <c r="P8" s="37" t="str">
+      <c r="P8" s="19" t="str">
         <f>IF(_data!O7="","",_data!O7)</f>
         <v/>
       </c>
-      <c r="Q8" s="37" t="str">
+      <c r="Q8" s="19" t="str">
         <f>IF(_data!P7="","",_data!P7)</f>
         <v/>
       </c>
-      <c r="R8" s="37" t="str">
+      <c r="R8" s="19" t="str">
         <f>IF(_data!Q7="","",_data!Q7)</f>
         <v/>
       </c>
-      <c r="S8" s="37" t="str">
+      <c r="S8" s="19" t="str">
         <f>IF(_data!R7="","",_data!R7)</f>
         <v/>
       </c>
-      <c r="T8" s="37" t="str">
+      <c r="T8" s="19" t="str">
         <f>IF(_data!S7="","",_data!S7)</f>
         <v/>
       </c>
-      <c r="U8" s="37" t="str">
+      <c r="U8" s="19" t="str">
         <f>IF(_data!T7="","",_data!T7)</f>
         <v/>
       </c>
-      <c r="V8" s="37" t="str">
+      <c r="V8" s="19" t="str">
         <f>IF(_data!U7="","",_data!U7)</f>
         <v/>
       </c>
-      <c r="W8" s="37" t="str">
+      <c r="W8" s="19" t="str">
         <f>IF(_data!V7="","",_data!V7)</f>
         <v/>
       </c>
-      <c r="X8" s="37" t="str">
+      <c r="X8" s="19" t="str">
         <f>IF(_data!W7="","",_data!W7)</f>
         <v/>
       </c>
-      <c r="Y8" s="37" t="str">
+      <c r="Y8" s="19" t="str">
         <f>IF(_data!X7="","",_data!X7)</f>
         <v/>
       </c>
-      <c r="Z8" s="37" t="str">
+      <c r="Z8" s="19" t="str">
         <f>IF(_data!Y7="","",_data!Y7)</f>
         <v/>
       </c>
-      <c r="AA8" s="37" t="str">
+      <c r="AA8" s="19" t="str">
         <f>IF(_data!Z7="","",_data!Z7)</f>
         <v/>
       </c>
-      <c r="AB8" s="37" t="str">
+      <c r="AB8" s="19" t="str">
         <f>IF(_data!AA7="","",_data!AA7)</f>
         <v/>
       </c>
-      <c r="AC8" s="37" t="str">
+      <c r="AC8" s="19" t="str">
         <f>IF(_data!AB7="","",_data!AB7)</f>
         <v/>
       </c>
-      <c r="AD8" s="37" t="str">
+      <c r="AD8" s="19" t="str">
         <f>IF(_data!AC7="","",_data!AC7)</f>
         <v/>
       </c>
-      <c r="AE8" s="37" t="str">
+      <c r="AE8" s="19" t="str">
         <f>IF(_data!AD7="","",_data!AD7)</f>
         <v/>
       </c>
-      <c r="AF8" s="37" t="str">
+      <c r="AF8" s="19" t="str">
         <f>IF(_data!AE7="","",_data!AE7)</f>
         <v/>
       </c>
-      <c r="AG8" s="37" t="str">
+      <c r="AG8" s="19" t="str">
         <f>IF(_data!AF7="","",_data!AF7)</f>
         <v/>
       </c>
-      <c r="AH8" s="37" t="str">
+      <c r="AH8" s="19" t="str">
         <f>IF(_data!AG7="","",_data!AG7)</f>
         <v/>
       </c>
-      <c r="AI8" s="37" t="str">
+      <c r="AI8" s="19" t="str">
         <f>IF(_data!AH7="","",_data!AH7)</f>
         <v/>
       </c>
-      <c r="AJ8" s="37" t="str">
+      <c r="AJ8" s="19" t="str">
         <f>IF(_data!AI7="","",_data!AI7)</f>
         <v/>
       </c>
-      <c r="AK8" s="37" t="str">
+      <c r="AK8" s="19" t="str">
         <f>IF(_data!AJ7="","",_data!AJ7)</f>
         <v/>
       </c>
-      <c r="AL8" s="37" t="str">
+      <c r="AL8" s="19" t="str">
         <f>IF(_data!AK7="","",_data!AK7)</f>
         <v/>
       </c>
-      <c r="AM8" s="37" t="str">
+      <c r="AM8" s="19" t="str">
         <f>IF(_data!AL7="","",_data!AL7)</f>
         <v/>
       </c>
-      <c r="AN8" s="37" t="str">
+      <c r="AN8" s="19" t="str">
         <f>IF(_data!AM7="","",_data!AM7)</f>
         <v/>
       </c>
-      <c r="AO8" s="37" t="str">
+      <c r="AO8" s="19" t="str">
         <f>IF(_data!AN7="","",_data!AN7)</f>
         <v/>
       </c>
-      <c r="AP8" s="37" t="str">
+      <c r="AP8" s="19" t="str">
         <f>IF(_data!AO7="","",_data!AO7)</f>
         <v/>
       </c>
-      <c r="AQ8" s="37" t="str">
+      <c r="AQ8" s="19" t="str">
         <f>IF(_data!AP7="","",_data!AP7)</f>
         <v/>
       </c>
-      <c r="AR8" s="37" t="str">
+      <c r="AR8" s="19" t="str">
         <f>IF(_data!AQ7="","",_data!AQ7)</f>
         <v/>
       </c>
-      <c r="AS8" s="37" t="str">
+      <c r="AS8" s="19" t="str">
         <f>IF(_data!AR7="","",_data!AR7)</f>
         <v/>
       </c>
-      <c r="AT8" s="37" t="str">
+      <c r="AT8" s="19" t="str">
         <f>IF(_data!AS7="","",_data!AS7)</f>
         <v/>
       </c>
-      <c r="AU8" s="37" t="str">
+      <c r="AU8" s="19" t="str">
         <f>IF(_data!AT7="","",_data!AT7)</f>
         <v/>
       </c>
-      <c r="AV8" s="37" t="str">
+      <c r="AV8" s="19" t="str">
         <f>IF(_data!AU7="","",_data!AU7)</f>
         <v/>
       </c>
-      <c r="AW8" s="37" t="str">
+      <c r="AW8" s="19" t="str">
         <f>IF(_data!AV7="","",_data!AV7)</f>
         <v/>
       </c>
-      <c r="AX8" s="37" t="str">
+      <c r="AX8" s="19" t="str">
         <f>IF(_data!AW7="","",_data!AW7)</f>
         <v/>
       </c>
-      <c r="AY8" s="37" t="str">
+      <c r="AY8" s="19" t="str">
         <f>IF(_data!AX7="","",_data!AX7)</f>
         <v/>
       </c>
-      <c r="AZ8" s="4" t="str">
+      <c r="AZ8" s="3" t="str">
         <f>IF(_data!AY7="","",_data!AY7)</f>
         <v/>
       </c>
@@ -2295,207 +2307,207 @@
       <c r="A9" s="2">
         <v>5</v>
       </c>
-      <c r="B9" s="37" t="str">
+      <c r="B9" s="19" t="str">
         <f>IF(_data!A8="","",_data!A8)</f>
         <v/>
       </c>
-      <c r="C9" s="37" t="str">
+      <c r="C9" s="19" t="str">
         <f>IF(_data!B8="","",_data!B8)</f>
         <v/>
       </c>
-      <c r="D9" s="37" t="str">
+      <c r="D9" s="19" t="str">
         <f>IF(_data!C8="","",_data!C8)</f>
         <v/>
       </c>
-      <c r="E9" s="37" t="str">
+      <c r="E9" s="39" t="str">
         <f>IF(_data!D8="","",_data!D8)</f>
         <v/>
       </c>
-      <c r="F9" s="37" t="str">
+      <c r="F9" s="19" t="str">
         <f>IF(_data!E8="","",_data!E8)</f>
         <v/>
       </c>
-      <c r="G9" s="37" t="str">
+      <c r="G9" s="19" t="str">
         <f>IF(_data!F8="","",_data!F8)</f>
         <v/>
       </c>
-      <c r="H9" s="37" t="str">
+      <c r="H9" s="19" t="str">
         <f>IF(_data!G8="","",_data!G8)</f>
         <v/>
       </c>
-      <c r="I9" s="37" t="str">
+      <c r="I9" s="39" t="str">
         <f>IF(_data!H8="","",_data!H8)</f>
         <v/>
       </c>
-      <c r="J9" s="37" t="str">
+      <c r="J9" s="19" t="str">
         <f>IF(_data!I8="","",_data!I8)</f>
         <v/>
       </c>
-      <c r="K9" s="37" t="str">
+      <c r="K9" s="19" t="str">
         <f>IF(_data!J8="","",_data!J8)</f>
         <v/>
       </c>
-      <c r="L9" s="37" t="str">
+      <c r="L9" s="19" t="str">
         <f>IF(_data!K8="","",_data!K8)</f>
         <v/>
       </c>
-      <c r="M9" s="37" t="str">
+      <c r="M9" s="39" t="str">
         <f>IF(_data!L8="","",_data!L8)</f>
         <v/>
       </c>
-      <c r="N9" s="37" t="str">
+      <c r="N9" s="19" t="str">
         <f>IF(_data!M8="","",_data!M8)</f>
         <v/>
       </c>
-      <c r="O9" s="37" t="str">
+      <c r="O9" s="19" t="str">
         <f>IF(_data!N8="","",_data!N8)</f>
         <v/>
       </c>
-      <c r="P9" s="37" t="str">
+      <c r="P9" s="19" t="str">
         <f>IF(_data!O8="","",_data!O8)</f>
         <v/>
       </c>
-      <c r="Q9" s="37" t="str">
+      <c r="Q9" s="19" t="str">
         <f>IF(_data!P8="","",_data!P8)</f>
         <v/>
       </c>
-      <c r="R9" s="37" t="str">
+      <c r="R9" s="19" t="str">
         <f>IF(_data!Q8="","",_data!Q8)</f>
         <v/>
       </c>
-      <c r="S9" s="37" t="str">
+      <c r="S9" s="19" t="str">
         <f>IF(_data!R8="","",_data!R8)</f>
         <v/>
       </c>
-      <c r="T9" s="37" t="str">
+      <c r="T9" s="19" t="str">
         <f>IF(_data!S8="","",_data!S8)</f>
         <v/>
       </c>
-      <c r="U9" s="37" t="str">
+      <c r="U9" s="19" t="str">
         <f>IF(_data!T8="","",_data!T8)</f>
         <v/>
       </c>
-      <c r="V9" s="37" t="str">
+      <c r="V9" s="19" t="str">
         <f>IF(_data!U8="","",_data!U8)</f>
         <v/>
       </c>
-      <c r="W9" s="37" t="str">
+      <c r="W9" s="19" t="str">
         <f>IF(_data!V8="","",_data!V8)</f>
         <v/>
       </c>
-      <c r="X9" s="37" t="str">
+      <c r="X9" s="19" t="str">
         <f>IF(_data!W8="","",_data!W8)</f>
         <v/>
       </c>
-      <c r="Y9" s="37" t="str">
+      <c r="Y9" s="19" t="str">
         <f>IF(_data!X8="","",_data!X8)</f>
         <v/>
       </c>
-      <c r="Z9" s="37" t="str">
+      <c r="Z9" s="19" t="str">
         <f>IF(_data!Y8="","",_data!Y8)</f>
         <v/>
       </c>
-      <c r="AA9" s="37" t="str">
+      <c r="AA9" s="19" t="str">
         <f>IF(_data!Z8="","",_data!Z8)</f>
         <v/>
       </c>
-      <c r="AB9" s="37" t="str">
+      <c r="AB9" s="19" t="str">
         <f>IF(_data!AA8="","",_data!AA8)</f>
         <v/>
       </c>
-      <c r="AC9" s="37" t="str">
+      <c r="AC9" s="19" t="str">
         <f>IF(_data!AB8="","",_data!AB8)</f>
         <v/>
       </c>
-      <c r="AD9" s="37" t="str">
+      <c r="AD9" s="19" t="str">
         <f>IF(_data!AC8="","",_data!AC8)</f>
         <v/>
       </c>
-      <c r="AE9" s="37" t="str">
+      <c r="AE9" s="19" t="str">
         <f>IF(_data!AD8="","",_data!AD8)</f>
         <v/>
       </c>
-      <c r="AF9" s="37" t="str">
+      <c r="AF9" s="19" t="str">
         <f>IF(_data!AE8="","",_data!AE8)</f>
         <v/>
       </c>
-      <c r="AG9" s="37" t="str">
+      <c r="AG9" s="19" t="str">
         <f>IF(_data!AF8="","",_data!AF8)</f>
         <v/>
       </c>
-      <c r="AH9" s="37" t="str">
+      <c r="AH9" s="19" t="str">
         <f>IF(_data!AG8="","",_data!AG8)</f>
         <v/>
       </c>
-      <c r="AI9" s="37" t="str">
+      <c r="AI9" s="19" t="str">
         <f>IF(_data!AH8="","",_data!AH8)</f>
         <v/>
       </c>
-      <c r="AJ9" s="37" t="str">
+      <c r="AJ9" s="19" t="str">
         <f>IF(_data!AI8="","",_data!AI8)</f>
         <v/>
       </c>
-      <c r="AK9" s="37" t="str">
+      <c r="AK9" s="19" t="str">
         <f>IF(_data!AJ8="","",_data!AJ8)</f>
         <v/>
       </c>
-      <c r="AL9" s="37" t="str">
+      <c r="AL9" s="19" t="str">
         <f>IF(_data!AK8="","",_data!AK8)</f>
         <v/>
       </c>
-      <c r="AM9" s="37" t="str">
+      <c r="AM9" s="19" t="str">
         <f>IF(_data!AL8="","",_data!AL8)</f>
         <v/>
       </c>
-      <c r="AN9" s="37" t="str">
+      <c r="AN9" s="19" t="str">
         <f>IF(_data!AM8="","",_data!AM8)</f>
         <v/>
       </c>
-      <c r="AO9" s="37" t="str">
+      <c r="AO9" s="19" t="str">
         <f>IF(_data!AN8="","",_data!AN8)</f>
         <v/>
       </c>
-      <c r="AP9" s="37" t="str">
+      <c r="AP9" s="19" t="str">
         <f>IF(_data!AO8="","",_data!AO8)</f>
         <v/>
       </c>
-      <c r="AQ9" s="37" t="str">
+      <c r="AQ9" s="19" t="str">
         <f>IF(_data!AP8="","",_data!AP8)</f>
         <v/>
       </c>
-      <c r="AR9" s="37" t="str">
+      <c r="AR9" s="19" t="str">
         <f>IF(_data!AQ8="","",_data!AQ8)</f>
         <v/>
       </c>
-      <c r="AS9" s="37" t="str">
+      <c r="AS9" s="19" t="str">
         <f>IF(_data!AR8="","",_data!AR8)</f>
         <v/>
       </c>
-      <c r="AT9" s="37" t="str">
+      <c r="AT9" s="19" t="str">
         <f>IF(_data!AS8="","",_data!AS8)</f>
         <v/>
       </c>
-      <c r="AU9" s="37" t="str">
+      <c r="AU9" s="19" t="str">
         <f>IF(_data!AT8="","",_data!AT8)</f>
         <v/>
       </c>
-      <c r="AV9" s="37" t="str">
+      <c r="AV9" s="19" t="str">
         <f>IF(_data!AU8="","",_data!AU8)</f>
         <v/>
       </c>
-      <c r="AW9" s="37" t="str">
+      <c r="AW9" s="19" t="str">
         <f>IF(_data!AV8="","",_data!AV8)</f>
         <v/>
       </c>
-      <c r="AX9" s="37" t="str">
+      <c r="AX9" s="19" t="str">
         <f>IF(_data!AW8="","",_data!AW8)</f>
         <v/>
       </c>
-      <c r="AY9" s="37" t="str">
+      <c r="AY9" s="19" t="str">
         <f>IF(_data!AX8="","",_data!AX8)</f>
         <v/>
       </c>
-      <c r="AZ9" s="4" t="str">
+      <c r="AZ9" s="3" t="str">
         <f>IF(_data!AY8="","",_data!AY8)</f>
         <v/>
       </c>
@@ -2504,207 +2516,207 @@
       <c r="A10" s="2">
         <v>6</v>
       </c>
-      <c r="B10" s="37" t="str">
+      <c r="B10" s="19" t="str">
         <f>IF(_data!A9="","",_data!A9)</f>
         <v/>
       </c>
-      <c r="C10" s="37" t="str">
+      <c r="C10" s="19" t="str">
         <f>IF(_data!B9="","",_data!B9)</f>
         <v/>
       </c>
-      <c r="D10" s="37" t="str">
+      <c r="D10" s="19" t="str">
         <f>IF(_data!C9="","",_data!C9)</f>
         <v/>
       </c>
-      <c r="E10" s="37" t="str">
+      <c r="E10" s="39" t="str">
         <f>IF(_data!D9="","",_data!D9)</f>
         <v/>
       </c>
-      <c r="F10" s="37" t="str">
+      <c r="F10" s="19" t="str">
         <f>IF(_data!E9="","",_data!E9)</f>
         <v/>
       </c>
-      <c r="G10" s="37" t="str">
+      <c r="G10" s="19" t="str">
         <f>IF(_data!F9="","",_data!F9)</f>
         <v/>
       </c>
-      <c r="H10" s="37" t="str">
+      <c r="H10" s="19" t="str">
         <f>IF(_data!G9="","",_data!G9)</f>
         <v/>
       </c>
-      <c r="I10" s="37" t="str">
+      <c r="I10" s="39" t="str">
         <f>IF(_data!H9="","",_data!H9)</f>
         <v/>
       </c>
-      <c r="J10" s="37" t="str">
+      <c r="J10" s="19" t="str">
         <f>IF(_data!I9="","",_data!I9)</f>
         <v/>
       </c>
-      <c r="K10" s="37" t="str">
+      <c r="K10" s="19" t="str">
         <f>IF(_data!J9="","",_data!J9)</f>
         <v/>
       </c>
-      <c r="L10" s="37" t="str">
+      <c r="L10" s="19" t="str">
         <f>IF(_data!K9="","",_data!K9)</f>
         <v/>
       </c>
-      <c r="M10" s="37" t="str">
+      <c r="M10" s="39" t="str">
         <f>IF(_data!L9="","",_data!L9)</f>
         <v/>
       </c>
-      <c r="N10" s="37" t="str">
+      <c r="N10" s="19" t="str">
         <f>IF(_data!M9="","",_data!M9)</f>
         <v/>
       </c>
-      <c r="O10" s="37" t="str">
+      <c r="O10" s="19" t="str">
         <f>IF(_data!N9="","",_data!N9)</f>
         <v/>
       </c>
-      <c r="P10" s="37" t="str">
+      <c r="P10" s="19" t="str">
         <f>IF(_data!O9="","",_data!O9)</f>
         <v/>
       </c>
-      <c r="Q10" s="37" t="str">
+      <c r="Q10" s="19" t="str">
         <f>IF(_data!P9="","",_data!P9)</f>
         <v/>
       </c>
-      <c r="R10" s="37" t="str">
+      <c r="R10" s="19" t="str">
         <f>IF(_data!Q9="","",_data!Q9)</f>
         <v/>
       </c>
-      <c r="S10" s="37" t="str">
+      <c r="S10" s="19" t="str">
         <f>IF(_data!R9="","",_data!R9)</f>
         <v/>
       </c>
-      <c r="T10" s="37" t="str">
+      <c r="T10" s="19" t="str">
         <f>IF(_data!S9="","",_data!S9)</f>
         <v/>
       </c>
-      <c r="U10" s="37" t="str">
+      <c r="U10" s="19" t="str">
         <f>IF(_data!T9="","",_data!T9)</f>
         <v/>
       </c>
-      <c r="V10" s="37" t="str">
+      <c r="V10" s="19" t="str">
         <f>IF(_data!U9="","",_data!U9)</f>
         <v/>
       </c>
-      <c r="W10" s="37" t="str">
+      <c r="W10" s="19" t="str">
         <f>IF(_data!V9="","",_data!V9)</f>
         <v/>
       </c>
-      <c r="X10" s="37" t="str">
+      <c r="X10" s="19" t="str">
         <f>IF(_data!W9="","",_data!W9)</f>
         <v/>
       </c>
-      <c r="Y10" s="37" t="str">
+      <c r="Y10" s="19" t="str">
         <f>IF(_data!X9="","",_data!X9)</f>
         <v/>
       </c>
-      <c r="Z10" s="37" t="str">
+      <c r="Z10" s="19" t="str">
         <f>IF(_data!Y9="","",_data!Y9)</f>
         <v/>
       </c>
-      <c r="AA10" s="37" t="str">
+      <c r="AA10" s="19" t="str">
         <f>IF(_data!Z9="","",_data!Z9)</f>
         <v/>
       </c>
-      <c r="AB10" s="37" t="str">
+      <c r="AB10" s="19" t="str">
         <f>IF(_data!AA9="","",_data!AA9)</f>
         <v/>
       </c>
-      <c r="AC10" s="37" t="str">
+      <c r="AC10" s="19" t="str">
         <f>IF(_data!AB9="","",_data!AB9)</f>
         <v/>
       </c>
-      <c r="AD10" s="37" t="str">
+      <c r="AD10" s="19" t="str">
         <f>IF(_data!AC9="","",_data!AC9)</f>
         <v/>
       </c>
-      <c r="AE10" s="37" t="str">
+      <c r="AE10" s="19" t="str">
         <f>IF(_data!AD9="","",_data!AD9)</f>
         <v/>
       </c>
-      <c r="AF10" s="37" t="str">
+      <c r="AF10" s="19" t="str">
         <f>IF(_data!AE9="","",_data!AE9)</f>
         <v/>
       </c>
-      <c r="AG10" s="37" t="str">
+      <c r="AG10" s="19" t="str">
         <f>IF(_data!AF9="","",_data!AF9)</f>
         <v/>
       </c>
-      <c r="AH10" s="37" t="str">
+      <c r="AH10" s="19" t="str">
         <f>IF(_data!AG9="","",_data!AG9)</f>
         <v/>
       </c>
-      <c r="AI10" s="37" t="str">
+      <c r="AI10" s="19" t="str">
         <f>IF(_data!AH9="","",_data!AH9)</f>
         <v/>
       </c>
-      <c r="AJ10" s="37" t="str">
+      <c r="AJ10" s="19" t="str">
         <f>IF(_data!AI9="","",_data!AI9)</f>
         <v/>
       </c>
-      <c r="AK10" s="37" t="str">
+      <c r="AK10" s="19" t="str">
         <f>IF(_data!AJ9="","",_data!AJ9)</f>
         <v/>
       </c>
-      <c r="AL10" s="37" t="str">
+      <c r="AL10" s="19" t="str">
         <f>IF(_data!AK9="","",_data!AK9)</f>
         <v/>
       </c>
-      <c r="AM10" s="37" t="str">
+      <c r="AM10" s="19" t="str">
         <f>IF(_data!AL9="","",_data!AL9)</f>
         <v/>
       </c>
-      <c r="AN10" s="37" t="str">
+      <c r="AN10" s="19" t="str">
         <f>IF(_data!AM9="","",_data!AM9)</f>
         <v/>
       </c>
-      <c r="AO10" s="37" t="str">
+      <c r="AO10" s="19" t="str">
         <f>IF(_data!AN9="","",_data!AN9)</f>
         <v/>
       </c>
-      <c r="AP10" s="37" t="str">
+      <c r="AP10" s="19" t="str">
         <f>IF(_data!AO9="","",_data!AO9)</f>
         <v/>
       </c>
-      <c r="AQ10" s="37" t="str">
+      <c r="AQ10" s="19" t="str">
         <f>IF(_data!AP9="","",_data!AP9)</f>
         <v/>
       </c>
-      <c r="AR10" s="37" t="str">
+      <c r="AR10" s="19" t="str">
         <f>IF(_data!AQ9="","",_data!AQ9)</f>
         <v/>
       </c>
-      <c r="AS10" s="37" t="str">
+      <c r="AS10" s="19" t="str">
         <f>IF(_data!AR9="","",_data!AR9)</f>
         <v/>
       </c>
-      <c r="AT10" s="37" t="str">
+      <c r="AT10" s="19" t="str">
         <f>IF(_data!AS9="","",_data!AS9)</f>
         <v/>
       </c>
-      <c r="AU10" s="37" t="str">
+      <c r="AU10" s="19" t="str">
         <f>IF(_data!AT9="","",_data!AT9)</f>
         <v/>
       </c>
-      <c r="AV10" s="37" t="str">
+      <c r="AV10" s="19" t="str">
         <f>IF(_data!AU9="","",_data!AU9)</f>
         <v/>
       </c>
-      <c r="AW10" s="37" t="str">
+      <c r="AW10" s="19" t="str">
         <f>IF(_data!AV9="","",_data!AV9)</f>
         <v/>
       </c>
-      <c r="AX10" s="37" t="str">
+      <c r="AX10" s="19" t="str">
         <f>IF(_data!AW9="","",_data!AW9)</f>
         <v/>
       </c>
-      <c r="AY10" s="37" t="str">
+      <c r="AY10" s="19" t="str">
         <f>IF(_data!AX9="","",_data!AX9)</f>
         <v/>
       </c>
-      <c r="AZ10" s="4" t="str">
+      <c r="AZ10" s="3" t="str">
         <f>IF(_data!AY9="","",_data!AY9)</f>
         <v/>
       </c>
@@ -2713,207 +2725,207 @@
       <c r="A11" s="2">
         <v>7</v>
       </c>
-      <c r="B11" s="37" t="str">
+      <c r="B11" s="19" t="str">
         <f>IF(_data!A10="","",_data!A10)</f>
         <v/>
       </c>
-      <c r="C11" s="37" t="str">
+      <c r="C11" s="19" t="str">
         <f>IF(_data!B10="","",_data!B10)</f>
         <v/>
       </c>
-      <c r="D11" s="37" t="str">
+      <c r="D11" s="19" t="str">
         <f>IF(_data!C10="","",_data!C10)</f>
         <v/>
       </c>
-      <c r="E11" s="37" t="str">
+      <c r="E11" s="39" t="str">
         <f>IF(_data!D10="","",_data!D10)</f>
         <v/>
       </c>
-      <c r="F11" s="37" t="str">
+      <c r="F11" s="19" t="str">
         <f>IF(_data!E10="","",_data!E10)</f>
         <v/>
       </c>
-      <c r="G11" s="37" t="str">
+      <c r="G11" s="19" t="str">
         <f>IF(_data!F10="","",_data!F10)</f>
         <v/>
       </c>
-      <c r="H11" s="37" t="str">
+      <c r="H11" s="19" t="str">
         <f>IF(_data!G10="","",_data!G10)</f>
         <v/>
       </c>
-      <c r="I11" s="37" t="str">
+      <c r="I11" s="39" t="str">
         <f>IF(_data!H10="","",_data!H10)</f>
         <v/>
       </c>
-      <c r="J11" s="37" t="str">
+      <c r="J11" s="19" t="str">
         <f>IF(_data!I10="","",_data!I10)</f>
         <v/>
       </c>
-      <c r="K11" s="37" t="str">
+      <c r="K11" s="19" t="str">
         <f>IF(_data!J10="","",_data!J10)</f>
         <v/>
       </c>
-      <c r="L11" s="37" t="str">
+      <c r="L11" s="19" t="str">
         <f>IF(_data!K10="","",_data!K10)</f>
         <v/>
       </c>
-      <c r="M11" s="37" t="str">
+      <c r="M11" s="39" t="str">
         <f>IF(_data!L10="","",_data!L10)</f>
         <v/>
       </c>
-      <c r="N11" s="37" t="str">
+      <c r="N11" s="19" t="str">
         <f>IF(_data!M10="","",_data!M10)</f>
         <v/>
       </c>
-      <c r="O11" s="37" t="str">
+      <c r="O11" s="19" t="str">
         <f>IF(_data!N10="","",_data!N10)</f>
         <v/>
       </c>
-      <c r="P11" s="37" t="str">
+      <c r="P11" s="19" t="str">
         <f>IF(_data!O10="","",_data!O10)</f>
         <v/>
       </c>
-      <c r="Q11" s="37" t="str">
+      <c r="Q11" s="19" t="str">
         <f>IF(_data!P10="","",_data!P10)</f>
         <v/>
       </c>
-      <c r="R11" s="37" t="str">
+      <c r="R11" s="19" t="str">
         <f>IF(_data!Q10="","",_data!Q10)</f>
         <v/>
       </c>
-      <c r="S11" s="37" t="str">
+      <c r="S11" s="19" t="str">
         <f>IF(_data!R10="","",_data!R10)</f>
         <v/>
       </c>
-      <c r="T11" s="37" t="str">
+      <c r="T11" s="19" t="str">
         <f>IF(_data!S10="","",_data!S10)</f>
         <v/>
       </c>
-      <c r="U11" s="37" t="str">
+      <c r="U11" s="19" t="str">
         <f>IF(_data!T10="","",_data!T10)</f>
         <v/>
       </c>
-      <c r="V11" s="37" t="str">
+      <c r="V11" s="19" t="str">
         <f>IF(_data!U10="","",_data!U10)</f>
         <v/>
       </c>
-      <c r="W11" s="37" t="str">
+      <c r="W11" s="19" t="str">
         <f>IF(_data!V10="","",_data!V10)</f>
         <v/>
       </c>
-      <c r="X11" s="37" t="str">
+      <c r="X11" s="19" t="str">
         <f>IF(_data!W10="","",_data!W10)</f>
         <v/>
       </c>
-      <c r="Y11" s="37" t="str">
+      <c r="Y11" s="19" t="str">
         <f>IF(_data!X10="","",_data!X10)</f>
         <v/>
       </c>
-      <c r="Z11" s="37" t="str">
+      <c r="Z11" s="19" t="str">
         <f>IF(_data!Y10="","",_data!Y10)</f>
         <v/>
       </c>
-      <c r="AA11" s="37" t="str">
+      <c r="AA11" s="19" t="str">
         <f>IF(_data!Z10="","",_data!Z10)</f>
         <v/>
       </c>
-      <c r="AB11" s="37" t="str">
+      <c r="AB11" s="19" t="str">
         <f>IF(_data!AA10="","",_data!AA10)</f>
         <v/>
       </c>
-      <c r="AC11" s="37" t="str">
+      <c r="AC11" s="19" t="str">
         <f>IF(_data!AB10="","",_data!AB10)</f>
         <v/>
       </c>
-      <c r="AD11" s="37" t="str">
+      <c r="AD11" s="19" t="str">
         <f>IF(_data!AC10="","",_data!AC10)</f>
         <v/>
       </c>
-      <c r="AE11" s="37" t="str">
+      <c r="AE11" s="19" t="str">
         <f>IF(_data!AD10="","",_data!AD10)</f>
         <v/>
       </c>
-      <c r="AF11" s="37" t="str">
+      <c r="AF11" s="19" t="str">
         <f>IF(_data!AE10="","",_data!AE10)</f>
         <v/>
       </c>
-      <c r="AG11" s="37" t="str">
+      <c r="AG11" s="19" t="str">
         <f>IF(_data!AF10="","",_data!AF10)</f>
         <v/>
       </c>
-      <c r="AH11" s="37" t="str">
+      <c r="AH11" s="19" t="str">
         <f>IF(_data!AG10="","",_data!AG10)</f>
         <v/>
       </c>
-      <c r="AI11" s="37" t="str">
+      <c r="AI11" s="19" t="str">
         <f>IF(_data!AH10="","",_data!AH10)</f>
         <v/>
       </c>
-      <c r="AJ11" s="37" t="str">
+      <c r="AJ11" s="19" t="str">
         <f>IF(_data!AI10="","",_data!AI10)</f>
         <v/>
       </c>
-      <c r="AK11" s="37" t="str">
+      <c r="AK11" s="19" t="str">
         <f>IF(_data!AJ10="","",_data!AJ10)</f>
         <v/>
       </c>
-      <c r="AL11" s="37" t="str">
+      <c r="AL11" s="19" t="str">
         <f>IF(_data!AK10="","",_data!AK10)</f>
         <v/>
       </c>
-      <c r="AM11" s="37" t="str">
+      <c r="AM11" s="19" t="str">
         <f>IF(_data!AL10="","",_data!AL10)</f>
         <v/>
       </c>
-      <c r="AN11" s="37" t="str">
+      <c r="AN11" s="19" t="str">
         <f>IF(_data!AM10="","",_data!AM10)</f>
         <v/>
       </c>
-      <c r="AO11" s="37" t="str">
+      <c r="AO11" s="19" t="str">
         <f>IF(_data!AN10="","",_data!AN10)</f>
         <v/>
       </c>
-      <c r="AP11" s="37" t="str">
+      <c r="AP11" s="19" t="str">
         <f>IF(_data!AO10="","",_data!AO10)</f>
         <v/>
       </c>
-      <c r="AQ11" s="37" t="str">
+      <c r="AQ11" s="19" t="str">
         <f>IF(_data!AP10="","",_data!AP10)</f>
         <v/>
       </c>
-      <c r="AR11" s="37" t="str">
+      <c r="AR11" s="19" t="str">
         <f>IF(_data!AQ10="","",_data!AQ10)</f>
         <v/>
       </c>
-      <c r="AS11" s="37" t="str">
+      <c r="AS11" s="19" t="str">
         <f>IF(_data!AR10="","",_data!AR10)</f>
         <v/>
       </c>
-      <c r="AT11" s="37" t="str">
+      <c r="AT11" s="19" t="str">
         <f>IF(_data!AS10="","",_data!AS10)</f>
         <v/>
       </c>
-      <c r="AU11" s="37" t="str">
+      <c r="AU11" s="19" t="str">
         <f>IF(_data!AT10="","",_data!AT10)</f>
         <v/>
       </c>
-      <c r="AV11" s="37" t="str">
+      <c r="AV11" s="19" t="str">
         <f>IF(_data!AU10="","",_data!AU10)</f>
         <v/>
       </c>
-      <c r="AW11" s="37" t="str">
+      <c r="AW11" s="19" t="str">
         <f>IF(_data!AV10="","",_data!AV10)</f>
         <v/>
       </c>
-      <c r="AX11" s="37" t="str">
+      <c r="AX11" s="19" t="str">
         <f>IF(_data!AW10="","",_data!AW10)</f>
         <v/>
       </c>
-      <c r="AY11" s="37" t="str">
+      <c r="AY11" s="19" t="str">
         <f>IF(_data!AX10="","",_data!AX10)</f>
         <v/>
       </c>
-      <c r="AZ11" s="4" t="str">
+      <c r="AZ11" s="3" t="str">
         <f>IF(_data!AY10="","",_data!AY10)</f>
         <v/>
       </c>
@@ -2922,207 +2934,207 @@
       <c r="A12" s="2">
         <v>8</v>
       </c>
-      <c r="B12" s="37" t="str">
+      <c r="B12" s="19" t="str">
         <f>IF(_data!A11="","",_data!A11)</f>
         <v/>
       </c>
-      <c r="C12" s="37" t="str">
+      <c r="C12" s="19" t="str">
         <f>IF(_data!B11="","",_data!B11)</f>
         <v/>
       </c>
-      <c r="D12" s="37" t="str">
+      <c r="D12" s="19" t="str">
         <f>IF(_data!C11="","",_data!C11)</f>
         <v/>
       </c>
-      <c r="E12" s="37" t="str">
+      <c r="E12" s="39" t="str">
         <f>IF(_data!D11="","",_data!D11)</f>
         <v/>
       </c>
-      <c r="F12" s="37" t="str">
+      <c r="F12" s="19" t="str">
         <f>IF(_data!E11="","",_data!E11)</f>
         <v/>
       </c>
-      <c r="G12" s="37" t="str">
+      <c r="G12" s="19" t="str">
         <f>IF(_data!F11="","",_data!F11)</f>
         <v/>
       </c>
-      <c r="H12" s="37" t="str">
+      <c r="H12" s="19" t="str">
         <f>IF(_data!G11="","",_data!G11)</f>
         <v/>
       </c>
-      <c r="I12" s="37" t="str">
+      <c r="I12" s="39" t="str">
         <f>IF(_data!H11="","",_data!H11)</f>
         <v/>
       </c>
-      <c r="J12" s="37" t="str">
+      <c r="J12" s="19" t="str">
         <f>IF(_data!I11="","",_data!I11)</f>
         <v/>
       </c>
-      <c r="K12" s="37" t="str">
+      <c r="K12" s="19" t="str">
         <f>IF(_data!J11="","",_data!J11)</f>
         <v/>
       </c>
-      <c r="L12" s="37" t="str">
+      <c r="L12" s="19" t="str">
         <f>IF(_data!K11="","",_data!K11)</f>
         <v/>
       </c>
-      <c r="M12" s="37" t="str">
+      <c r="M12" s="39" t="str">
         <f>IF(_data!L11="","",_data!L11)</f>
         <v/>
       </c>
-      <c r="N12" s="37" t="str">
+      <c r="N12" s="19" t="str">
         <f>IF(_data!M11="","",_data!M11)</f>
         <v/>
       </c>
-      <c r="O12" s="37" t="str">
+      <c r="O12" s="19" t="str">
         <f>IF(_data!N11="","",_data!N11)</f>
         <v/>
       </c>
-      <c r="P12" s="37" t="str">
+      <c r="P12" s="19" t="str">
         <f>IF(_data!O11="","",_data!O11)</f>
         <v/>
       </c>
-      <c r="Q12" s="37" t="str">
+      <c r="Q12" s="19" t="str">
         <f>IF(_data!P11="","",_data!P11)</f>
         <v/>
       </c>
-      <c r="R12" s="37" t="str">
+      <c r="R12" s="19" t="str">
         <f>IF(_data!Q11="","",_data!Q11)</f>
         <v/>
       </c>
-      <c r="S12" s="37" t="str">
+      <c r="S12" s="19" t="str">
         <f>IF(_data!R11="","",_data!R11)</f>
         <v/>
       </c>
-      <c r="T12" s="37" t="str">
+      <c r="T12" s="19" t="str">
         <f>IF(_data!S11="","",_data!S11)</f>
         <v/>
       </c>
-      <c r="U12" s="37" t="str">
+      <c r="U12" s="19" t="str">
         <f>IF(_data!T11="","",_data!T11)</f>
         <v/>
       </c>
-      <c r="V12" s="37" t="str">
+      <c r="V12" s="19" t="str">
         <f>IF(_data!U11="","",_data!U11)</f>
         <v/>
       </c>
-      <c r="W12" s="37" t="str">
+      <c r="W12" s="19" t="str">
         <f>IF(_data!V11="","",_data!V11)</f>
         <v/>
       </c>
-      <c r="X12" s="37" t="str">
+      <c r="X12" s="19" t="str">
         <f>IF(_data!W11="","",_data!W11)</f>
         <v/>
       </c>
-      <c r="Y12" s="37" t="str">
+      <c r="Y12" s="19" t="str">
         <f>IF(_data!X11="","",_data!X11)</f>
         <v/>
       </c>
-      <c r="Z12" s="37" t="str">
+      <c r="Z12" s="19" t="str">
         <f>IF(_data!Y11="","",_data!Y11)</f>
         <v/>
       </c>
-      <c r="AA12" s="37" t="str">
+      <c r="AA12" s="19" t="str">
         <f>IF(_data!Z11="","",_data!Z11)</f>
         <v/>
       </c>
-      <c r="AB12" s="37" t="str">
+      <c r="AB12" s="19" t="str">
         <f>IF(_data!AA11="","",_data!AA11)</f>
         <v/>
       </c>
-      <c r="AC12" s="37" t="str">
+      <c r="AC12" s="19" t="str">
         <f>IF(_data!AB11="","",_data!AB11)</f>
         <v/>
       </c>
-      <c r="AD12" s="37" t="str">
+      <c r="AD12" s="19" t="str">
         <f>IF(_data!AC11="","",_data!AC11)</f>
         <v/>
       </c>
-      <c r="AE12" s="37" t="str">
+      <c r="AE12" s="19" t="str">
         <f>IF(_data!AD11="","",_data!AD11)</f>
         <v/>
       </c>
-      <c r="AF12" s="37" t="str">
+      <c r="AF12" s="19" t="str">
         <f>IF(_data!AE11="","",_data!AE11)</f>
         <v/>
       </c>
-      <c r="AG12" s="37" t="str">
+      <c r="AG12" s="19" t="str">
         <f>IF(_data!AF11="","",_data!AF11)</f>
         <v/>
       </c>
-      <c r="AH12" s="37" t="str">
+      <c r="AH12" s="19" t="str">
         <f>IF(_data!AG11="","",_data!AG11)</f>
         <v/>
       </c>
-      <c r="AI12" s="37" t="str">
+      <c r="AI12" s="19" t="str">
         <f>IF(_data!AH11="","",_data!AH11)</f>
         <v/>
       </c>
-      <c r="AJ12" s="37" t="str">
+      <c r="AJ12" s="19" t="str">
         <f>IF(_data!AI11="","",_data!AI11)</f>
         <v/>
       </c>
-      <c r="AK12" s="37" t="str">
+      <c r="AK12" s="19" t="str">
         <f>IF(_data!AJ11="","",_data!AJ11)</f>
         <v/>
       </c>
-      <c r="AL12" s="37" t="str">
+      <c r="AL12" s="19" t="str">
         <f>IF(_data!AK11="","",_data!AK11)</f>
         <v/>
       </c>
-      <c r="AM12" s="37" t="str">
+      <c r="AM12" s="19" t="str">
         <f>IF(_data!AL11="","",_data!AL11)</f>
         <v/>
       </c>
-      <c r="AN12" s="37" t="str">
+      <c r="AN12" s="19" t="str">
         <f>IF(_data!AM11="","",_data!AM11)</f>
         <v/>
       </c>
-      <c r="AO12" s="37" t="str">
+      <c r="AO12" s="19" t="str">
         <f>IF(_data!AN11="","",_data!AN11)</f>
         <v/>
       </c>
-      <c r="AP12" s="37" t="str">
+      <c r="AP12" s="19" t="str">
         <f>IF(_data!AO11="","",_data!AO11)</f>
         <v/>
       </c>
-      <c r="AQ12" s="37" t="str">
+      <c r="AQ12" s="19" t="str">
         <f>IF(_data!AP11="","",_data!AP11)</f>
         <v/>
       </c>
-      <c r="AR12" s="37" t="str">
+      <c r="AR12" s="19" t="str">
         <f>IF(_data!AQ11="","",_data!AQ11)</f>
         <v/>
       </c>
-      <c r="AS12" s="37" t="str">
+      <c r="AS12" s="19" t="str">
         <f>IF(_data!AR11="","",_data!AR11)</f>
         <v/>
       </c>
-      <c r="AT12" s="37" t="str">
+      <c r="AT12" s="19" t="str">
         <f>IF(_data!AS11="","",_data!AS11)</f>
         <v/>
       </c>
-      <c r="AU12" s="37" t="str">
+      <c r="AU12" s="19" t="str">
         <f>IF(_data!AT11="","",_data!AT11)</f>
         <v/>
       </c>
-      <c r="AV12" s="37" t="str">
+      <c r="AV12" s="19" t="str">
         <f>IF(_data!AU11="","",_data!AU11)</f>
         <v/>
       </c>
-      <c r="AW12" s="37" t="str">
+      <c r="AW12" s="19" t="str">
         <f>IF(_data!AV11="","",_data!AV11)</f>
         <v/>
       </c>
-      <c r="AX12" s="37" t="str">
+      <c r="AX12" s="19" t="str">
         <f>IF(_data!AW11="","",_data!AW11)</f>
         <v/>
       </c>
-      <c r="AY12" s="37" t="str">
+      <c r="AY12" s="19" t="str">
         <f>IF(_data!AX11="","",_data!AX11)</f>
         <v/>
       </c>
-      <c r="AZ12" s="4" t="str">
+      <c r="AZ12" s="3" t="str">
         <f>IF(_data!AY11="","",_data!AY11)</f>
         <v/>
       </c>
@@ -3131,207 +3143,207 @@
       <c r="A13" s="2">
         <v>9</v>
       </c>
-      <c r="B13" s="37" t="str">
+      <c r="B13" s="19" t="str">
         <f>IF(_data!A12="","",_data!A12)</f>
         <v/>
       </c>
-      <c r="C13" s="37" t="str">
+      <c r="C13" s="19" t="str">
         <f>IF(_data!B12="","",_data!B12)</f>
         <v/>
       </c>
-      <c r="D13" s="37" t="str">
+      <c r="D13" s="19" t="str">
         <f>IF(_data!C12="","",_data!C12)</f>
         <v/>
       </c>
-      <c r="E13" s="37" t="str">
+      <c r="E13" s="39" t="str">
         <f>IF(_data!D12="","",_data!D12)</f>
         <v/>
       </c>
-      <c r="F13" s="37" t="str">
+      <c r="F13" s="19" t="str">
         <f>IF(_data!E12="","",_data!E12)</f>
         <v/>
       </c>
-      <c r="G13" s="37" t="str">
+      <c r="G13" s="19" t="str">
         <f>IF(_data!F12="","",_data!F12)</f>
         <v/>
       </c>
-      <c r="H13" s="37" t="str">
+      <c r="H13" s="19" t="str">
         <f>IF(_data!G12="","",_data!G12)</f>
         <v/>
       </c>
-      <c r="I13" s="37" t="str">
+      <c r="I13" s="39" t="str">
         <f>IF(_data!H12="","",_data!H12)</f>
         <v/>
       </c>
-      <c r="J13" s="37" t="str">
+      <c r="J13" s="19" t="str">
         <f>IF(_data!I12="","",_data!I12)</f>
         <v/>
       </c>
-      <c r="K13" s="37" t="str">
+      <c r="K13" s="19" t="str">
         <f>IF(_data!J12="","",_data!J12)</f>
         <v/>
       </c>
-      <c r="L13" s="37" t="str">
+      <c r="L13" s="19" t="str">
         <f>IF(_data!K12="","",_data!K12)</f>
         <v/>
       </c>
-      <c r="M13" s="37" t="str">
+      <c r="M13" s="39" t="str">
         <f>IF(_data!L12="","",_data!L12)</f>
         <v/>
       </c>
-      <c r="N13" s="37" t="str">
+      <c r="N13" s="19" t="str">
         <f>IF(_data!M12="","",_data!M12)</f>
         <v/>
       </c>
-      <c r="O13" s="37" t="str">
+      <c r="O13" s="19" t="str">
         <f>IF(_data!N12="","",_data!N12)</f>
         <v/>
       </c>
-      <c r="P13" s="37" t="str">
+      <c r="P13" s="19" t="str">
         <f>IF(_data!O12="","",_data!O12)</f>
         <v/>
       </c>
-      <c r="Q13" s="37" t="str">
+      <c r="Q13" s="19" t="str">
         <f>IF(_data!P12="","",_data!P12)</f>
         <v/>
       </c>
-      <c r="R13" s="37" t="str">
+      <c r="R13" s="19" t="str">
         <f>IF(_data!Q12="","",_data!Q12)</f>
         <v/>
       </c>
-      <c r="S13" s="37" t="str">
+      <c r="S13" s="19" t="str">
         <f>IF(_data!R12="","",_data!R12)</f>
         <v/>
       </c>
-      <c r="T13" s="37" t="str">
+      <c r="T13" s="19" t="str">
         <f>IF(_data!S12="","",_data!S12)</f>
         <v/>
       </c>
-      <c r="U13" s="37" t="str">
+      <c r="U13" s="19" t="str">
         <f>IF(_data!T12="","",_data!T12)</f>
         <v/>
       </c>
-      <c r="V13" s="37" t="str">
+      <c r="V13" s="19" t="str">
         <f>IF(_data!U12="","",_data!U12)</f>
         <v/>
       </c>
-      <c r="W13" s="37" t="str">
+      <c r="W13" s="19" t="str">
         <f>IF(_data!V12="","",_data!V12)</f>
         <v/>
       </c>
-      <c r="X13" s="37" t="str">
+      <c r="X13" s="19" t="str">
         <f>IF(_data!W12="","",_data!W12)</f>
         <v/>
       </c>
-      <c r="Y13" s="37" t="str">
+      <c r="Y13" s="19" t="str">
         <f>IF(_data!X12="","",_data!X12)</f>
         <v/>
       </c>
-      <c r="Z13" s="37" t="str">
+      <c r="Z13" s="19" t="str">
         <f>IF(_data!Y12="","",_data!Y12)</f>
         <v/>
       </c>
-      <c r="AA13" s="37" t="str">
+      <c r="AA13" s="19" t="str">
         <f>IF(_data!Z12="","",_data!Z12)</f>
         <v/>
       </c>
-      <c r="AB13" s="37" t="str">
+      <c r="AB13" s="19" t="str">
         <f>IF(_data!AA12="","",_data!AA12)</f>
         <v/>
       </c>
-      <c r="AC13" s="37" t="str">
+      <c r="AC13" s="19" t="str">
         <f>IF(_data!AB12="","",_data!AB12)</f>
         <v/>
       </c>
-      <c r="AD13" s="37" t="str">
+      <c r="AD13" s="19" t="str">
         <f>IF(_data!AC12="","",_data!AC12)</f>
         <v/>
       </c>
-      <c r="AE13" s="37" t="str">
+      <c r="AE13" s="19" t="str">
         <f>IF(_data!AD12="","",_data!AD12)</f>
         <v/>
       </c>
-      <c r="AF13" s="37" t="str">
+      <c r="AF13" s="19" t="str">
         <f>IF(_data!AE12="","",_data!AE12)</f>
         <v/>
       </c>
-      <c r="AG13" s="37" t="str">
+      <c r="AG13" s="19" t="str">
         <f>IF(_data!AF12="","",_data!AF12)</f>
         <v/>
       </c>
-      <c r="AH13" s="37" t="str">
+      <c r="AH13" s="19" t="str">
         <f>IF(_data!AG12="","",_data!AG12)</f>
         <v/>
       </c>
-      <c r="AI13" s="37" t="str">
+      <c r="AI13" s="19" t="str">
         <f>IF(_data!AH12="","",_data!AH12)</f>
         <v/>
       </c>
-      <c r="AJ13" s="37" t="str">
+      <c r="AJ13" s="19" t="str">
         <f>IF(_data!AI12="","",_data!AI12)</f>
         <v/>
       </c>
-      <c r="AK13" s="37" t="str">
+      <c r="AK13" s="19" t="str">
         <f>IF(_data!AJ12="","",_data!AJ12)</f>
         <v/>
       </c>
-      <c r="AL13" s="37" t="str">
+      <c r="AL13" s="19" t="str">
         <f>IF(_data!AK12="","",_data!AK12)</f>
         <v/>
       </c>
-      <c r="AM13" s="37" t="str">
+      <c r="AM13" s="19" t="str">
         <f>IF(_data!AL12="","",_data!AL12)</f>
         <v/>
       </c>
-      <c r="AN13" s="37" t="str">
+      <c r="AN13" s="19" t="str">
         <f>IF(_data!AM12="","",_data!AM12)</f>
         <v/>
       </c>
-      <c r="AO13" s="37" t="str">
+      <c r="AO13" s="19" t="str">
         <f>IF(_data!AN12="","",_data!AN12)</f>
         <v/>
       </c>
-      <c r="AP13" s="37" t="str">
+      <c r="AP13" s="19" t="str">
         <f>IF(_data!AO12="","",_data!AO12)</f>
         <v/>
       </c>
-      <c r="AQ13" s="37" t="str">
+      <c r="AQ13" s="19" t="str">
         <f>IF(_data!AP12="","",_data!AP12)</f>
         <v/>
       </c>
-      <c r="AR13" s="37" t="str">
+      <c r="AR13" s="19" t="str">
         <f>IF(_data!AQ12="","",_data!AQ12)</f>
         <v/>
       </c>
-      <c r="AS13" s="37" t="str">
+      <c r="AS13" s="19" t="str">
         <f>IF(_data!AR12="","",_data!AR12)</f>
         <v/>
       </c>
-      <c r="AT13" s="37" t="str">
+      <c r="AT13" s="19" t="str">
         <f>IF(_data!AS12="","",_data!AS12)</f>
         <v/>
       </c>
-      <c r="AU13" s="37" t="str">
+      <c r="AU13" s="19" t="str">
         <f>IF(_data!AT12="","",_data!AT12)</f>
         <v/>
       </c>
-      <c r="AV13" s="37" t="str">
+      <c r="AV13" s="19" t="str">
         <f>IF(_data!AU12="","",_data!AU12)</f>
         <v/>
       </c>
-      <c r="AW13" s="37" t="str">
+      <c r="AW13" s="19" t="str">
         <f>IF(_data!AV12="","",_data!AV12)</f>
         <v/>
       </c>
-      <c r="AX13" s="37" t="str">
+      <c r="AX13" s="19" t="str">
         <f>IF(_data!AW12="","",_data!AW12)</f>
         <v/>
       </c>
-      <c r="AY13" s="37" t="str">
+      <c r="AY13" s="19" t="str">
         <f>IF(_data!AX12="","",_data!AX12)</f>
         <v/>
       </c>
-      <c r="AZ13" s="4" t="str">
+      <c r="AZ13" s="3" t="str">
         <f>IF(_data!AY12="","",_data!AY12)</f>
         <v/>
       </c>
@@ -3340,417 +3352,417 @@
       <c r="A14" s="2">
         <v>10</v>
       </c>
-      <c r="B14" s="37" t="str">
+      <c r="B14" s="19" t="str">
         <f>IF(_data!A13="","",_data!A13)</f>
         <v/>
       </c>
-      <c r="C14" s="37" t="str">
+      <c r="C14" s="19" t="str">
         <f>IF(_data!B13="","",_data!B13)</f>
         <v/>
       </c>
-      <c r="D14" s="37" t="str">
+      <c r="D14" s="19" t="str">
         <f>IF(_data!C13="","",_data!C13)</f>
         <v/>
       </c>
-      <c r="E14" s="37" t="str">
+      <c r="E14" s="39" t="str">
         <f>IF(_data!D13="","",_data!D13)</f>
         <v/>
       </c>
-      <c r="F14" s="37" t="str">
+      <c r="F14" s="19" t="str">
         <f>IF(_data!E13="","",_data!E13)</f>
         <v/>
       </c>
-      <c r="G14" s="37" t="str">
+      <c r="G14" s="19" t="str">
         <f>IF(_data!F13="","",_data!F13)</f>
         <v/>
       </c>
-      <c r="H14" s="37" t="str">
+      <c r="H14" s="19" t="str">
         <f>IF(_data!G13="","",_data!G13)</f>
         <v/>
       </c>
-      <c r="I14" s="37" t="str">
+      <c r="I14" s="39" t="str">
         <f>IF(_data!H13="","",_data!H13)</f>
         <v/>
       </c>
-      <c r="J14" s="37" t="str">
+      <c r="J14" s="19" t="str">
         <f>IF(_data!I13="","",_data!I13)</f>
         <v/>
       </c>
-      <c r="K14" s="37" t="str">
+      <c r="K14" s="19" t="str">
         <f>IF(_data!J13="","",_data!J13)</f>
         <v/>
       </c>
-      <c r="L14" s="37" t="str">
+      <c r="L14" s="19" t="str">
         <f>IF(_data!K13="","",_data!K13)</f>
         <v/>
       </c>
-      <c r="M14" s="37" t="str">
+      <c r="M14" s="39" t="str">
         <f>IF(_data!L13="","",_data!L13)</f>
         <v/>
       </c>
-      <c r="N14" s="37" t="str">
+      <c r="N14" s="19" t="str">
         <f>IF(_data!M13="","",_data!M13)</f>
         <v/>
       </c>
-      <c r="O14" s="37" t="str">
+      <c r="O14" s="19" t="str">
         <f>IF(_data!N13="","",_data!N13)</f>
         <v/>
       </c>
-      <c r="P14" s="37" t="str">
+      <c r="P14" s="19" t="str">
         <f>IF(_data!O13="","",_data!O13)</f>
         <v/>
       </c>
-      <c r="Q14" s="37" t="str">
+      <c r="Q14" s="19" t="str">
         <f>IF(_data!P13="","",_data!P13)</f>
         <v/>
       </c>
-      <c r="R14" s="37" t="str">
+      <c r="R14" s="19" t="str">
         <f>IF(_data!Q13="","",_data!Q13)</f>
         <v/>
       </c>
-      <c r="S14" s="37" t="str">
+      <c r="S14" s="19" t="str">
         <f>IF(_data!R13="","",_data!R13)</f>
         <v/>
       </c>
-      <c r="T14" s="37" t="str">
+      <c r="T14" s="19" t="str">
         <f>IF(_data!S13="","",_data!S13)</f>
         <v/>
       </c>
-      <c r="U14" s="37" t="str">
+      <c r="U14" s="19" t="str">
         <f>IF(_data!T13="","",_data!T13)</f>
         <v/>
       </c>
-      <c r="V14" s="37" t="str">
+      <c r="V14" s="19" t="str">
         <f>IF(_data!U13="","",_data!U13)</f>
         <v/>
       </c>
-      <c r="W14" s="37" t="str">
+      <c r="W14" s="19" t="str">
         <f>IF(_data!V13="","",_data!V13)</f>
         <v/>
       </c>
-      <c r="X14" s="37" t="str">
+      <c r="X14" s="19" t="str">
         <f>IF(_data!W13="","",_data!W13)</f>
         <v/>
       </c>
-      <c r="Y14" s="37" t="str">
+      <c r="Y14" s="19" t="str">
         <f>IF(_data!X13="","",_data!X13)</f>
         <v/>
       </c>
-      <c r="Z14" s="37" t="str">
+      <c r="Z14" s="19" t="str">
         <f>IF(_data!Y13="","",_data!Y13)</f>
         <v/>
       </c>
-      <c r="AA14" s="37" t="str">
+      <c r="AA14" s="19" t="str">
         <f>IF(_data!Z13="","",_data!Z13)</f>
         <v/>
       </c>
-      <c r="AB14" s="37" t="str">
+      <c r="AB14" s="19" t="str">
         <f>IF(_data!AA13="","",_data!AA13)</f>
         <v/>
       </c>
-      <c r="AC14" s="37" t="str">
+      <c r="AC14" s="19" t="str">
         <f>IF(_data!AB13="","",_data!AB13)</f>
         <v/>
       </c>
-      <c r="AD14" s="37" t="str">
+      <c r="AD14" s="19" t="str">
         <f>IF(_data!AC13="","",_data!AC13)</f>
         <v/>
       </c>
-      <c r="AE14" s="37" t="str">
+      <c r="AE14" s="19" t="str">
         <f>IF(_data!AD13="","",_data!AD13)</f>
         <v/>
       </c>
-      <c r="AF14" s="37" t="str">
+      <c r="AF14" s="19" t="str">
         <f>IF(_data!AE13="","",_data!AE13)</f>
         <v/>
       </c>
-      <c r="AG14" s="37" t="str">
+      <c r="AG14" s="19" t="str">
         <f>IF(_data!AF13="","",_data!AF13)</f>
         <v/>
       </c>
-      <c r="AH14" s="37" t="str">
+      <c r="AH14" s="19" t="str">
         <f>IF(_data!AG13="","",_data!AG13)</f>
         <v/>
       </c>
-      <c r="AI14" s="37" t="str">
+      <c r="AI14" s="19" t="str">
         <f>IF(_data!AH13="","",_data!AH13)</f>
         <v/>
       </c>
-      <c r="AJ14" s="37" t="str">
+      <c r="AJ14" s="19" t="str">
         <f>IF(_data!AI13="","",_data!AI13)</f>
         <v/>
       </c>
-      <c r="AK14" s="37" t="str">
+      <c r="AK14" s="19" t="str">
         <f>IF(_data!AJ13="","",_data!AJ13)</f>
         <v/>
       </c>
-      <c r="AL14" s="37" t="str">
+      <c r="AL14" s="19" t="str">
         <f>IF(_data!AK13="","",_data!AK13)</f>
         <v/>
       </c>
-      <c r="AM14" s="37" t="str">
+      <c r="AM14" s="19" t="str">
         <f>IF(_data!AL13="","",_data!AL13)</f>
         <v/>
       </c>
-      <c r="AN14" s="37" t="str">
+      <c r="AN14" s="19" t="str">
         <f>IF(_data!AM13="","",_data!AM13)</f>
         <v/>
       </c>
-      <c r="AO14" s="37" t="str">
+      <c r="AO14" s="19" t="str">
         <f>IF(_data!AN13="","",_data!AN13)</f>
         <v/>
       </c>
-      <c r="AP14" s="37" t="str">
+      <c r="AP14" s="19" t="str">
         <f>IF(_data!AO13="","",_data!AO13)</f>
         <v/>
       </c>
-      <c r="AQ14" s="37" t="str">
+      <c r="AQ14" s="19" t="str">
         <f>IF(_data!AP13="","",_data!AP13)</f>
         <v/>
       </c>
-      <c r="AR14" s="37" t="str">
+      <c r="AR14" s="19" t="str">
         <f>IF(_data!AQ13="","",_data!AQ13)</f>
         <v/>
       </c>
-      <c r="AS14" s="37" t="str">
+      <c r="AS14" s="19" t="str">
         <f>IF(_data!AR13="","",_data!AR13)</f>
         <v/>
       </c>
-      <c r="AT14" s="37" t="str">
+      <c r="AT14" s="19" t="str">
         <f>IF(_data!AS13="","",_data!AS13)</f>
         <v/>
       </c>
-      <c r="AU14" s="37" t="str">
+      <c r="AU14" s="19" t="str">
         <f>IF(_data!AT13="","",_data!AT13)</f>
         <v/>
       </c>
-      <c r="AV14" s="37" t="str">
+      <c r="AV14" s="19" t="str">
         <f>IF(_data!AU13="","",_data!AU13)</f>
         <v/>
       </c>
-      <c r="AW14" s="37" t="str">
+      <c r="AW14" s="19" t="str">
         <f>IF(_data!AV13="","",_data!AV13)</f>
         <v/>
       </c>
-      <c r="AX14" s="37" t="str">
+      <c r="AX14" s="19" t="str">
         <f>IF(_data!AW13="","",_data!AW13)</f>
         <v/>
       </c>
-      <c r="AY14" s="37" t="str">
+      <c r="AY14" s="19" t="str">
         <f>IF(_data!AX13="","",_data!AX13)</f>
         <v/>
       </c>
-      <c r="AZ14" s="4" t="str">
+      <c r="AZ14" s="3" t="str">
         <f>IF(_data!AY13="","",_data!AY13)</f>
         <v/>
       </c>
     </row>
     <row r="15" spans="1:61">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="11" t="str">
+      <c r="B15" s="10" t="str">
         <f>IF(ISERROR(AVERAGE(B5:B14)),"",AVERAGE(B5:B14))</f>
         <v/>
       </c>
-      <c r="C15" s="11" t="str">
-        <f t="shared" ref="C15:AZ15" si="0">IF(ISERROR(AVERAGE(C5:C14)),"",AVERAGE(C5:C14))</f>
-        <v/>
-      </c>
-      <c r="D15" s="11" t="str">
+      <c r="C15" s="10" t="str">
+        <f t="shared" ref="C15:AY15" si="0">IF(ISERROR(AVERAGE(C5:C14)),"",AVERAGE(C5:C14))</f>
+        <v/>
+      </c>
+      <c r="D15" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E15" s="11" t="str">
+      <c r="E15" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F15" s="11" t="str">
+      <c r="F15" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G15" s="11" t="str">
+      <c r="G15" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H15" s="11" t="str">
+      <c r="H15" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I15" s="11" t="str">
+      <c r="I15" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J15" s="11" t="str">
+      <c r="J15" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K15" s="11" t="str">
+      <c r="K15" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L15" s="11" t="str">
+      <c r="L15" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M15" s="11" t="str">
+      <c r="M15" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="N15" s="11" t="str">
+      <c r="N15" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="O15" s="11" t="str">
+      <c r="O15" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="P15" s="11" t="str">
+      <c r="P15" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="Q15" s="11" t="str">
+      <c r="Q15" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="R15" s="11" t="str">
+      <c r="R15" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="S15" s="11" t="str">
+      <c r="S15" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="T15" s="11" t="str">
+      <c r="T15" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="U15" s="11" t="str">
+      <c r="U15" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="V15" s="11" t="str">
+      <c r="V15" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="W15" s="11" t="str">
+      <c r="W15" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="X15" s="11" t="str">
+      <c r="X15" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="Y15" s="11" t="str">
+      <c r="Y15" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="Z15" s="11" t="str">
+      <c r="Z15" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AA15" s="11" t="str">
+      <c r="AA15" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AB15" s="11" t="str">
+      <c r="AB15" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AC15" s="11" t="str">
+      <c r="AC15" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AD15" s="11" t="str">
+      <c r="AD15" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AE15" s="11" t="str">
+      <c r="AE15" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AF15" s="11" t="str">
+      <c r="AF15" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AG15" s="11" t="str">
+      <c r="AG15" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AH15" s="11" t="str">
+      <c r="AH15" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AI15" s="11" t="str">
+      <c r="AI15" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AJ15" s="11" t="str">
+      <c r="AJ15" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AK15" s="11" t="str">
+      <c r="AK15" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AL15" s="11" t="str">
+      <c r="AL15" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AM15" s="11" t="str">
+      <c r="AM15" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AN15" s="11" t="str">
+      <c r="AN15" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AO15" s="11" t="str">
+      <c r="AO15" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AP15" s="11" t="str">
+      <c r="AP15" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AQ15" s="11" t="str">
+      <c r="AQ15" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AR15" s="11" t="str">
+      <c r="AR15" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AS15" s="11" t="str">
+      <c r="AS15" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AT15" s="11" t="str">
+      <c r="AT15" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AU15" s="11" t="str">
+      <c r="AU15" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AV15" s="11" t="str">
+      <c r="AV15" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AW15" s="11" t="str">
+      <c r="AW15" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AX15" s="11" t="str">
+      <c r="AX15" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AY15" s="11" t="str">
+      <c r="AY15" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AZ15" s="11" t="str">
-        <f t="shared" si="0"/>
+      <c r="AZ15" s="12" t="str">
+        <f>IF(ISERROR(AVERAGE(AZ5:AZ14)),"",AVERAGE(AZ5:AZ14))</f>
         <v/>
       </c>
     </row>
@@ -3770,7 +3782,7 @@
         <f>IF(_data!C15="","",_data!C15)</f>
         <v/>
       </c>
-      <c r="E16" s="1" t="str">
+      <c r="E16" s="41" t="str">
         <f>IF(_data!D15="","",_data!D15)</f>
         <v/>
       </c>
@@ -3786,7 +3798,7 @@
         <f>IF(_data!G15="","",_data!G15)</f>
         <v/>
       </c>
-      <c r="I16" s="1" t="str">
+      <c r="I16" s="41" t="str">
         <f>IF(_data!H15="","",_data!H15)</f>
         <v/>
       </c>
@@ -3802,7 +3814,7 @@
         <f>IF(_data!K15="","",_data!K15)</f>
         <v/>
       </c>
-      <c r="M16" s="1" t="str">
+      <c r="M16" s="41" t="str">
         <f>IF(_data!L15="","",_data!L15)</f>
         <v/>
       </c>
@@ -3979,7 +3991,7 @@
         <f>IF(_data!C16="","",_data!C16)</f>
         <v/>
       </c>
-      <c r="E17" s="1" t="str">
+      <c r="E17" s="41" t="str">
         <f>IF(_data!D16="","",_data!D16)</f>
         <v/>
       </c>
@@ -3995,7 +4007,7 @@
         <f>IF(_data!G16="","",_data!G16)</f>
         <v/>
       </c>
-      <c r="I17" s="1" t="str">
+      <c r="I17" s="41" t="str">
         <f>IF(_data!H16="","",_data!H16)</f>
         <v/>
       </c>
@@ -4011,7 +4023,7 @@
         <f>IF(_data!K16="","",_data!K16)</f>
         <v/>
       </c>
-      <c r="M17" s="1" t="str">
+      <c r="M17" s="41" t="str">
         <f>IF(_data!L16="","",_data!L16)</f>
         <v/>
       </c>
@@ -4188,7 +4200,7 @@
         <f>IF(_data!C17="","",_data!C17)</f>
         <v/>
       </c>
-      <c r="E18" s="1" t="str">
+      <c r="E18" s="41" t="str">
         <f>IF(_data!D17="","",_data!D17)</f>
         <v/>
       </c>
@@ -4204,7 +4216,7 @@
         <f>IF(_data!G17="","",_data!G17)</f>
         <v/>
       </c>
-      <c r="I18" s="1" t="str">
+      <c r="I18" s="41" t="str">
         <f>IF(_data!H17="","",_data!H17)</f>
         <v/>
       </c>
@@ -4220,7 +4232,7 @@
         <f>IF(_data!K17="","",_data!K17)</f>
         <v/>
       </c>
-      <c r="M18" s="1" t="str">
+      <c r="M18" s="41" t="str">
         <f>IF(_data!L17="","",_data!L17)</f>
         <v/>
       </c>
@@ -4397,7 +4409,7 @@
         <f>IF(_data!C18="","",_data!C18)</f>
         <v/>
       </c>
-      <c r="E19" s="1" t="str">
+      <c r="E19" s="41" t="str">
         <f>IF(_data!D18="","",_data!D18)</f>
         <v/>
       </c>
@@ -4413,7 +4425,7 @@
         <f>IF(_data!G18="","",_data!G18)</f>
         <v/>
       </c>
-      <c r="I19" s="1" t="str">
+      <c r="I19" s="41" t="str">
         <f>IF(_data!H18="","",_data!H18)</f>
         <v/>
       </c>
@@ -4429,7 +4441,7 @@
         <f>IF(_data!K18="","",_data!K18)</f>
         <v/>
       </c>
-      <c r="M19" s="1" t="str">
+      <c r="M19" s="41" t="str">
         <f>IF(_data!L18="","",_data!L18)</f>
         <v/>
       </c>
@@ -4606,7 +4618,7 @@
         <f>IF(_data!C19="","",_data!C19)</f>
         <v/>
       </c>
-      <c r="E20" s="1" t="str">
+      <c r="E20" s="41" t="str">
         <f>IF(_data!D19="","",_data!D19)</f>
         <v/>
       </c>
@@ -4622,7 +4634,7 @@
         <f>IF(_data!G19="","",_data!G19)</f>
         <v/>
       </c>
-      <c r="I20" s="1" t="str">
+      <c r="I20" s="41" t="str">
         <f>IF(_data!H19="","",_data!H19)</f>
         <v/>
       </c>
@@ -4638,7 +4650,7 @@
         <f>IF(_data!K19="","",_data!K19)</f>
         <v/>
       </c>
-      <c r="M20" s="1" t="str">
+      <c r="M20" s="41" t="str">
         <f>IF(_data!L19="","",_data!L19)</f>
         <v/>
       </c>
@@ -4815,7 +4827,7 @@
         <f>IF(_data!C20="","",_data!C20)</f>
         <v/>
       </c>
-      <c r="E21" s="1" t="str">
+      <c r="E21" s="41" t="str">
         <f>IF(_data!D20="","",_data!D20)</f>
         <v/>
       </c>
@@ -4831,7 +4843,7 @@
         <f>IF(_data!G20="","",_data!G20)</f>
         <v/>
       </c>
-      <c r="I21" s="1" t="str">
+      <c r="I21" s="41" t="str">
         <f>IF(_data!H20="","",_data!H20)</f>
         <v/>
       </c>
@@ -4847,7 +4859,7 @@
         <f>IF(_data!K20="","",_data!K20)</f>
         <v/>
       </c>
-      <c r="M21" s="1" t="str">
+      <c r="M21" s="41" t="str">
         <f>IF(_data!L20="","",_data!L20)</f>
         <v/>
       </c>
@@ -5024,7 +5036,7 @@
         <f>IF(_data!C21="","",_data!C21)</f>
         <v/>
       </c>
-      <c r="E22" s="1" t="str">
+      <c r="E22" s="41" t="str">
         <f>IF(_data!D21="","",_data!D21)</f>
         <v/>
       </c>
@@ -5040,7 +5052,7 @@
         <f>IF(_data!G21="","",_data!G21)</f>
         <v/>
       </c>
-      <c r="I22" s="1" t="str">
+      <c r="I22" s="41" t="str">
         <f>IF(_data!H21="","",_data!H21)</f>
         <v/>
       </c>
@@ -5056,7 +5068,7 @@
         <f>IF(_data!K21="","",_data!K21)</f>
         <v/>
       </c>
-      <c r="M22" s="1" t="str">
+      <c r="M22" s="41" t="str">
         <f>IF(_data!L21="","",_data!L21)</f>
         <v/>
       </c>
@@ -5233,7 +5245,7 @@
         <f>IF(_data!C22="","",_data!C22)</f>
         <v/>
       </c>
-      <c r="E23" s="1" t="str">
+      <c r="E23" s="41" t="str">
         <f>IF(_data!D22="","",_data!D22)</f>
         <v/>
       </c>
@@ -5249,7 +5261,7 @@
         <f>IF(_data!G22="","",_data!G22)</f>
         <v/>
       </c>
-      <c r="I23" s="1" t="str">
+      <c r="I23" s="41" t="str">
         <f>IF(_data!H22="","",_data!H22)</f>
         <v/>
       </c>
@@ -5265,7 +5277,7 @@
         <f>IF(_data!K22="","",_data!K22)</f>
         <v/>
       </c>
-      <c r="M23" s="1" t="str">
+      <c r="M23" s="41" t="str">
         <f>IF(_data!L22="","",_data!L22)</f>
         <v/>
       </c>
@@ -5442,7 +5454,7 @@
         <f>IF(_data!C23="","",_data!C23)</f>
         <v/>
       </c>
-      <c r="E24" s="1" t="str">
+      <c r="E24" s="41" t="str">
         <f>IF(_data!D23="","",_data!D23)</f>
         <v/>
       </c>
@@ -5458,7 +5470,7 @@
         <f>IF(_data!G23="","",_data!G23)</f>
         <v/>
       </c>
-      <c r="I24" s="1" t="str">
+      <c r="I24" s="41" t="str">
         <f>IF(_data!H23="","",_data!H23)</f>
         <v/>
       </c>
@@ -5474,7 +5486,7 @@
         <f>IF(_data!K23="","",_data!K23)</f>
         <v/>
       </c>
-      <c r="M24" s="1" t="str">
+      <c r="M24" s="41" t="str">
         <f>IF(_data!L23="","",_data!L23)</f>
         <v/>
       </c>
@@ -5651,7 +5663,7 @@
         <f>IF(_data!C24="","",_data!C24)</f>
         <v/>
       </c>
-      <c r="E25" s="1" t="str">
+      <c r="E25" s="41" t="str">
         <f>IF(_data!D24="","",_data!D24)</f>
         <v/>
       </c>
@@ -5667,7 +5679,7 @@
         <f>IF(_data!G24="","",_data!G24)</f>
         <v/>
       </c>
-      <c r="I25" s="1" t="str">
+      <c r="I25" s="41" t="str">
         <f>IF(_data!H24="","",_data!H24)</f>
         <v/>
       </c>
@@ -5683,7 +5695,7 @@
         <f>IF(_data!K24="","",_data!K24)</f>
         <v/>
       </c>
-      <c r="M25" s="1" t="str">
+      <c r="M25" s="41" t="str">
         <f>IF(_data!L24="","",_data!L24)</f>
         <v/>
       </c>
@@ -5845,210 +5857,210 @@
       </c>
     </row>
     <row r="26" spans="1:52">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="11" t="str">
+      <c r="B26" s="10" t="str">
         <f>IF(ISERROR(AVERAGE(B16:B25)),"",AVERAGE(B16:B25))</f>
         <v/>
       </c>
-      <c r="C26" s="11" t="str">
+      <c r="C26" s="10" t="str">
         <f t="shared" ref="C26:AZ26" si="1">IF(ISERROR(AVERAGE(C16:C25)),"",AVERAGE(C16:C25))</f>
         <v/>
       </c>
-      <c r="D26" s="11" t="str">
+      <c r="D26" s="10" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="E26" s="11" t="str">
+      <c r="E26" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F26" s="11" t="str">
+      <c r="F26" s="10" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G26" s="11" t="str">
+      <c r="G26" s="10" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H26" s="11" t="str">
+      <c r="H26" s="10" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I26" s="11" t="str">
+      <c r="I26" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J26" s="11" t="str">
+      <c r="J26" s="10" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="K26" s="11" t="str">
+      <c r="K26" s="10" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L26" s="11" t="str">
+      <c r="L26" s="10" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="M26" s="11" t="str">
+      <c r="M26" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="N26" s="11" t="str">
+      <c r="N26" s="10" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="O26" s="11" t="str">
+      <c r="O26" s="10" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="P26" s="11" t="str">
+      <c r="P26" s="10" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="Q26" s="11" t="str">
+      <c r="Q26" s="10" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="R26" s="11" t="str">
+      <c r="R26" s="10" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="S26" s="11" t="str">
+      <c r="S26" s="10" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="T26" s="11" t="str">
+      <c r="T26" s="10" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="U26" s="11" t="str">
+      <c r="U26" s="10" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="V26" s="11" t="str">
+      <c r="V26" s="10" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="W26" s="11" t="str">
+      <c r="W26" s="10" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="X26" s="11" t="str">
+      <c r="X26" s="10" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="Y26" s="11" t="str">
+      <c r="Y26" s="10" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="Z26" s="11" t="str">
+      <c r="Z26" s="10" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AA26" s="11" t="str">
+      <c r="AA26" s="10" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AB26" s="11" t="str">
+      <c r="AB26" s="10" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AC26" s="11" t="str">
+      <c r="AC26" s="10" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AD26" s="11" t="str">
+      <c r="AD26" s="10" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AE26" s="11" t="str">
+      <c r="AE26" s="10" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AF26" s="11" t="str">
+      <c r="AF26" s="10" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AG26" s="11" t="str">
+      <c r="AG26" s="10" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AH26" s="11" t="str">
+      <c r="AH26" s="10" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AI26" s="11" t="str">
+      <c r="AI26" s="10" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AJ26" s="11" t="str">
+      <c r="AJ26" s="10" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AK26" s="11" t="str">
+      <c r="AK26" s="10" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AL26" s="11" t="str">
+      <c r="AL26" s="10" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AM26" s="11" t="str">
+      <c r="AM26" s="10" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AN26" s="11" t="str">
+      <c r="AN26" s="10" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AO26" s="11" t="str">
+      <c r="AO26" s="10" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AP26" s="11" t="str">
+      <c r="AP26" s="10" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AQ26" s="11" t="str">
+      <c r="AQ26" s="10" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AR26" s="11" t="str">
+      <c r="AR26" s="10" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AS26" s="11" t="str">
+      <c r="AS26" s="10" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AT26" s="11" t="str">
+      <c r="AT26" s="10" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AU26" s="11" t="str">
+      <c r="AU26" s="10" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AV26" s="11" t="str">
+      <c r="AV26" s="10" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AW26" s="11" t="str">
+      <c r="AW26" s="10" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AX26" s="11" t="str">
+      <c r="AX26" s="10" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AY26" s="11" t="str">
+      <c r="AY26" s="10" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AZ26" s="11" t="str">
+      <c r="AZ26" s="12" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -6069,7 +6081,7 @@
         <f>IF(_data!C26="","",_data!C26)</f>
         <v/>
       </c>
-      <c r="E27" s="1" t="str">
+      <c r="E27" s="41" t="str">
         <f>IF(_data!D26="","",_data!D26)</f>
         <v/>
       </c>
@@ -6085,7 +6097,7 @@
         <f>IF(_data!G26="","",_data!G26)</f>
         <v/>
       </c>
-      <c r="I27" s="1" t="str">
+      <c r="I27" s="41" t="str">
         <f>IF(_data!H26="","",_data!H26)</f>
         <v/>
       </c>
@@ -6101,7 +6113,7 @@
         <f>IF(_data!K26="","",_data!K26)</f>
         <v/>
       </c>
-      <c r="M27" s="1" t="str">
+      <c r="M27" s="41" t="str">
         <f>IF(_data!L26="","",_data!L26)</f>
         <v/>
       </c>
@@ -6278,7 +6290,7 @@
         <f>IF(_data!C27="","",_data!C27)</f>
         <v/>
       </c>
-      <c r="E28" s="1" t="str">
+      <c r="E28" s="41" t="str">
         <f>IF(_data!D27="","",_data!D27)</f>
         <v/>
       </c>
@@ -6294,7 +6306,7 @@
         <f>IF(_data!G27="","",_data!G27)</f>
         <v/>
       </c>
-      <c r="I28" s="1" t="str">
+      <c r="I28" s="41" t="str">
         <f>IF(_data!H27="","",_data!H27)</f>
         <v/>
       </c>
@@ -6310,7 +6322,7 @@
         <f>IF(_data!K27="","",_data!K27)</f>
         <v/>
       </c>
-      <c r="M28" s="1" t="str">
+      <c r="M28" s="41" t="str">
         <f>IF(_data!L27="","",_data!L27)</f>
         <v/>
       </c>
@@ -6487,7 +6499,7 @@
         <f>IF(_data!C28="","",_data!C28)</f>
         <v/>
       </c>
-      <c r="E29" s="1" t="str">
+      <c r="E29" s="41" t="str">
         <f>IF(_data!D28="","",_data!D28)</f>
         <v/>
       </c>
@@ -6503,7 +6515,7 @@
         <f>IF(_data!G28="","",_data!G28)</f>
         <v/>
       </c>
-      <c r="I29" s="1" t="str">
+      <c r="I29" s="41" t="str">
         <f>IF(_data!H28="","",_data!H28)</f>
         <v/>
       </c>
@@ -6519,7 +6531,7 @@
         <f>IF(_data!K28="","",_data!K28)</f>
         <v/>
       </c>
-      <c r="M29" s="1" t="str">
+      <c r="M29" s="41" t="str">
         <f>IF(_data!L28="","",_data!L28)</f>
         <v/>
       </c>
@@ -6696,7 +6708,7 @@
         <f>IF(_data!C29="","",_data!C29)</f>
         <v/>
       </c>
-      <c r="E30" s="1" t="str">
+      <c r="E30" s="41" t="str">
         <f>IF(_data!D29="","",_data!D29)</f>
         <v/>
       </c>
@@ -6712,7 +6724,7 @@
         <f>IF(_data!G29="","",_data!G29)</f>
         <v/>
       </c>
-      <c r="I30" s="1" t="str">
+      <c r="I30" s="41" t="str">
         <f>IF(_data!H29="","",_data!H29)</f>
         <v/>
       </c>
@@ -6728,7 +6740,7 @@
         <f>IF(_data!K29="","",_data!K29)</f>
         <v/>
       </c>
-      <c r="M30" s="1" t="str">
+      <c r="M30" s="41" t="str">
         <f>IF(_data!L29="","",_data!L29)</f>
         <v/>
       </c>
@@ -6905,7 +6917,7 @@
         <f>IF(_data!C30="","",_data!C30)</f>
         <v/>
       </c>
-      <c r="E31" s="1" t="str">
+      <c r="E31" s="41" t="str">
         <f>IF(_data!D30="","",_data!D30)</f>
         <v/>
       </c>
@@ -6921,7 +6933,7 @@
         <f>IF(_data!G30="","",_data!G30)</f>
         <v/>
       </c>
-      <c r="I31" s="1" t="str">
+      <c r="I31" s="41" t="str">
         <f>IF(_data!H30="","",_data!H30)</f>
         <v/>
       </c>
@@ -6937,7 +6949,7 @@
         <f>IF(_data!K30="","",_data!K30)</f>
         <v/>
       </c>
-      <c r="M31" s="1" t="str">
+      <c r="M31" s="41" t="str">
         <f>IF(_data!L30="","",_data!L30)</f>
         <v/>
       </c>
@@ -7114,7 +7126,7 @@
         <f>IF(_data!C31="","",_data!C31)</f>
         <v/>
       </c>
-      <c r="E32" s="1" t="str">
+      <c r="E32" s="41" t="str">
         <f>IF(_data!D31="","",_data!D31)</f>
         <v/>
       </c>
@@ -7130,7 +7142,7 @@
         <f>IF(_data!G31="","",_data!G31)</f>
         <v/>
       </c>
-      <c r="I32" s="1" t="str">
+      <c r="I32" s="41" t="str">
         <f>IF(_data!H31="","",_data!H31)</f>
         <v/>
       </c>
@@ -7146,7 +7158,7 @@
         <f>IF(_data!K31="","",_data!K31)</f>
         <v/>
       </c>
-      <c r="M32" s="1" t="str">
+      <c r="M32" s="41" t="str">
         <f>IF(_data!L31="","",_data!L31)</f>
         <v/>
       </c>
@@ -7323,7 +7335,7 @@
         <f>IF(_data!C32="","",_data!C32)</f>
         <v/>
       </c>
-      <c r="E33" s="1" t="str">
+      <c r="E33" s="41" t="str">
         <f>IF(_data!D32="","",_data!D32)</f>
         <v/>
       </c>
@@ -7339,7 +7351,7 @@
         <f>IF(_data!G32="","",_data!G32)</f>
         <v/>
       </c>
-      <c r="I33" s="1" t="str">
+      <c r="I33" s="41" t="str">
         <f>IF(_data!H32="","",_data!H32)</f>
         <v/>
       </c>
@@ -7355,7 +7367,7 @@
         <f>IF(_data!K32="","",_data!K32)</f>
         <v/>
       </c>
-      <c r="M33" s="1" t="str">
+      <c r="M33" s="41" t="str">
         <f>IF(_data!L32="","",_data!L32)</f>
         <v/>
       </c>
@@ -7532,7 +7544,7 @@
         <f>IF(_data!C33="","",_data!C33)</f>
         <v/>
       </c>
-      <c r="E34" s="1" t="str">
+      <c r="E34" s="41" t="str">
         <f>IF(_data!D33="","",_data!D33)</f>
         <v/>
       </c>
@@ -7548,7 +7560,7 @@
         <f>IF(_data!G33="","",_data!G33)</f>
         <v/>
       </c>
-      <c r="I34" s="1" t="str">
+      <c r="I34" s="41" t="str">
         <f>IF(_data!H33="","",_data!H33)</f>
         <v/>
       </c>
@@ -7564,7 +7576,7 @@
         <f>IF(_data!K33="","",_data!K33)</f>
         <v/>
       </c>
-      <c r="M34" s="1" t="str">
+      <c r="M34" s="41" t="str">
         <f>IF(_data!L33="","",_data!L33)</f>
         <v/>
       </c>
@@ -7741,7 +7753,7 @@
         <f>IF(_data!C34="","",_data!C34)</f>
         <v/>
       </c>
-      <c r="E35" s="1" t="str">
+      <c r="E35" s="41" t="str">
         <f>IF(_data!D34="","",_data!D34)</f>
         <v/>
       </c>
@@ -7757,7 +7769,7 @@
         <f>IF(_data!G34="","",_data!G34)</f>
         <v/>
       </c>
-      <c r="I35" s="1" t="str">
+      <c r="I35" s="41" t="str">
         <f>IF(_data!H34="","",_data!H34)</f>
         <v/>
       </c>
@@ -7773,7 +7785,7 @@
         <f>IF(_data!K34="","",_data!K34)</f>
         <v/>
       </c>
-      <c r="M35" s="1" t="str">
+      <c r="M35" s="41" t="str">
         <f>IF(_data!L34="","",_data!L34)</f>
         <v/>
       </c>
@@ -7950,7 +7962,7 @@
         <f>IF(_data!C35="","",_data!C35)</f>
         <v/>
       </c>
-      <c r="E36" s="1" t="str">
+      <c r="E36" s="41" t="str">
         <f>IF(_data!D35="","",_data!D35)</f>
         <v/>
       </c>
@@ -7966,7 +7978,7 @@
         <f>IF(_data!G35="","",_data!G35)</f>
         <v/>
       </c>
-      <c r="I36" s="1" t="str">
+      <c r="I36" s="41" t="str">
         <f>IF(_data!H35="","",_data!H35)</f>
         <v/>
       </c>
@@ -7982,7 +7994,7 @@
         <f>IF(_data!K35="","",_data!K35)</f>
         <v/>
       </c>
-      <c r="M36" s="1" t="str">
+      <c r="M36" s="41" t="str">
         <f>IF(_data!L35="","",_data!L35)</f>
         <v/>
       </c>
@@ -8159,7 +8171,7 @@
         <f>IF(_data!C36="","",_data!C36)</f>
         <v/>
       </c>
-      <c r="E37" s="1" t="str">
+      <c r="E37" s="41" t="str">
         <f>IF(_data!D36="","",_data!D36)</f>
         <v/>
       </c>
@@ -8175,7 +8187,7 @@
         <f>IF(_data!G36="","",_data!G36)</f>
         <v/>
       </c>
-      <c r="I37" s="1" t="str">
+      <c r="I37" s="41" t="str">
         <f>IF(_data!H36="","",_data!H36)</f>
         <v/>
       </c>
@@ -8191,7 +8203,7 @@
         <f>IF(_data!K36="","",_data!K36)</f>
         <v/>
       </c>
-      <c r="M37" s="1" t="str">
+      <c r="M37" s="41" t="str">
         <f>IF(_data!L36="","",_data!L36)</f>
         <v/>
       </c>
@@ -8353,419 +8365,419 @@
       </c>
     </row>
     <row r="38" spans="1:52">
-      <c r="A38" s="10" t="s">
+      <c r="A38" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B38" s="11" t="str">
+      <c r="B38" s="10" t="str">
         <f>IF(ISERROR(AVERAGE(B27:B37)),"",AVERAGE(B27:B37))</f>
         <v/>
       </c>
-      <c r="C38" s="12" t="str">
+      <c r="C38" s="11" t="str">
         <f t="shared" ref="C38:AZ38" si="2">IF(ISERROR(AVERAGE(C27:C37)),"",AVERAGE(C27:C37))</f>
         <v/>
       </c>
-      <c r="D38" s="12" t="str">
+      <c r="D38" s="11" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="E38" s="12" t="str">
+      <c r="E38" s="40" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F38" s="11" t="str">
+      <c r="F38" s="10" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G38" s="12" t="str">
+      <c r="G38" s="11" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="H38" s="12" t="str">
+      <c r="H38" s="11" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I38" s="12" t="str">
+      <c r="I38" s="40" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J38" s="11" t="str">
+      <c r="J38" s="10" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K38" s="12" t="str">
+      <c r="K38" s="11" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L38" s="12" t="str">
+      <c r="L38" s="11" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M38" s="12" t="str">
+      <c r="M38" s="40" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N38" s="11" t="str">
+      <c r="N38" s="10" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="O38" s="11" t="str">
+      <c r="O38" s="10" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P38" s="11" t="str">
+      <c r="P38" s="10" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="Q38" s="11" t="str">
+      <c r="Q38" s="10" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="R38" s="11" t="str">
+      <c r="R38" s="10" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="S38" s="11" t="str">
+      <c r="S38" s="10" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="T38" s="11" t="str">
+      <c r="T38" s="10" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="U38" s="11" t="str">
+      <c r="U38" s="10" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="V38" s="11" t="str">
+      <c r="V38" s="10" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="W38" s="11" t="str">
+      <c r="W38" s="10" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="X38" s="11" t="str">
+      <c r="X38" s="10" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="Y38" s="11" t="str">
+      <c r="Y38" s="10" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="Z38" s="11" t="str">
+      <c r="Z38" s="10" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AA38" s="11" t="str">
+      <c r="AA38" s="10" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AB38" s="11" t="str">
+      <c r="AB38" s="10" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AC38" s="11" t="str">
+      <c r="AC38" s="10" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AD38" s="11" t="str">
+      <c r="AD38" s="10" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AE38" s="11" t="str">
+      <c r="AE38" s="10" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AF38" s="11" t="str">
+      <c r="AF38" s="10" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AG38" s="11" t="str">
+      <c r="AG38" s="10" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AH38" s="11" t="str">
+      <c r="AH38" s="10" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AI38" s="11" t="str">
+      <c r="AI38" s="10" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AJ38" s="11" t="str">
+      <c r="AJ38" s="10" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AK38" s="11" t="str">
+      <c r="AK38" s="10" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AL38" s="11" t="str">
+      <c r="AL38" s="10" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AM38" s="11" t="str">
+      <c r="AM38" s="10" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AN38" s="11" t="str">
+      <c r="AN38" s="10" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AO38" s="11" t="str">
+      <c r="AO38" s="10" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AP38" s="11" t="str">
+      <c r="AP38" s="10" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AQ38" s="11" t="str">
+      <c r="AQ38" s="10" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AR38" s="11" t="str">
+      <c r="AR38" s="10" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AS38" s="11" t="str">
+      <c r="AS38" s="10" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AT38" s="11" t="str">
+      <c r="AT38" s="10" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AU38" s="11" t="str">
+      <c r="AU38" s="10" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AV38" s="11" t="str">
+      <c r="AV38" s="10" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AW38" s="11" t="str">
+      <c r="AW38" s="10" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AX38" s="11" t="str">
+      <c r="AX38" s="10" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AY38" s="11" t="str">
+      <c r="AY38" s="10" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AZ38" s="13" t="str">
+      <c r="AZ38" s="12" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="39" spans="1:52" ht="14.25" thickBot="1">
-      <c r="A39" s="14" t="s">
+      <c r="A39" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="B39" s="15" t="str">
+      <c r="B39" s="14" t="str">
         <f>IF(ISERROR(AVERAGE(B5:B14,B16:B25,B27:B37)),"",AVERAGE(B5:B14,B16:B25,B27:B37))</f>
         <v/>
       </c>
-      <c r="C39" s="16" t="str">
+      <c r="C39" s="15" t="str">
         <f>IF(ISERROR(AVERAGE(C5:C14,C16:C25,C27:C37)),"",AVERAGE(C5:C14,C16:C25,C27:C37))</f>
         <v/>
       </c>
-      <c r="D39" s="16" t="str">
+      <c r="D39" s="15" t="str">
         <f>IF(ISERROR(AVERAGE(D5:D14,D16:D25,D27:D37)),"",AVERAGE(D5:D14,D16:D25,D27:D37))</f>
         <v/>
       </c>
-      <c r="E39" s="16" t="str">
+      <c r="E39" s="42" t="str">
         <f t="shared" ref="E39:AZ39" si="3">IF(ISERROR(AVERAGE(E5:E14,E16:E25,E27:E37)),"",AVERAGE(E5:E14,E16:E25,E27:E37))</f>
         <v/>
       </c>
-      <c r="F39" s="15" t="str">
+      <c r="F39" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G39" s="16" t="str">
+      <c r="G39" s="15" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="H39" s="16" t="str">
+      <c r="H39" s="15" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="I39" s="16" t="str">
+      <c r="I39" s="42" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J39" s="15" t="str">
+      <c r="J39" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K39" s="16" t="str">
+      <c r="K39" s="15" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L39" s="16" t="str">
+      <c r="L39" s="15" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="M39" s="16" t="str">
+      <c r="M39" s="42" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="N39" s="15" t="str">
+      <c r="N39" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="O39" s="15" t="str">
+      <c r="O39" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="P39" s="15" t="str">
+      <c r="P39" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="Q39" s="15" t="str">
+      <c r="Q39" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="R39" s="15" t="str">
+      <c r="R39" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="S39" s="15" t="str">
+      <c r="S39" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="T39" s="15" t="str">
+      <c r="T39" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="U39" s="15" t="str">
+      <c r="U39" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="V39" s="15" t="str">
+      <c r="V39" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="W39" s="15" t="str">
+      <c r="W39" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="X39" s="15" t="str">
+      <c r="X39" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="Y39" s="15" t="str">
+      <c r="Y39" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="Z39" s="15" t="str">
+      <c r="Z39" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AA39" s="15" t="str">
+      <c r="AA39" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AB39" s="15" t="str">
+      <c r="AB39" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AC39" s="15" t="str">
+      <c r="AC39" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AD39" s="15" t="str">
+      <c r="AD39" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AE39" s="15" t="str">
+      <c r="AE39" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AF39" s="15" t="str">
+      <c r="AF39" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AG39" s="15" t="str">
+      <c r="AG39" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AH39" s="15" t="str">
+      <c r="AH39" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AI39" s="15" t="str">
+      <c r="AI39" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AJ39" s="15" t="str">
+      <c r="AJ39" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AK39" s="15" t="str">
+      <c r="AK39" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AL39" s="15" t="str">
+      <c r="AL39" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AM39" s="15" t="str">
+      <c r="AM39" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AN39" s="15" t="str">
+      <c r="AN39" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AO39" s="15" t="str">
+      <c r="AO39" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AP39" s="15" t="str">
+      <c r="AP39" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AQ39" s="15" t="str">
+      <c r="AQ39" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AR39" s="15" t="str">
+      <c r="AR39" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AS39" s="15" t="str">
+      <c r="AS39" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AT39" s="15" t="str">
+      <c r="AT39" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AU39" s="15" t="str">
+      <c r="AU39" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AV39" s="15" t="str">
+      <c r="AV39" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AW39" s="15" t="str">
+      <c r="AW39" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AX39" s="15" t="str">
+      <c r="AX39" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AY39" s="15" t="str">
+      <c r="AY39" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AZ39" s="17" t="str">
+      <c r="AZ39" s="16" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -8776,7 +8788,6 @@
     <protectedRange sqref="AL39:AW39" name="区域17"/>
   </protectedRanges>
   <mergeCells count="20">
-    <mergeCell ref="AO3:AQ3"/>
     <mergeCell ref="AR3:AT3"/>
     <mergeCell ref="AF3:AH3"/>
     <mergeCell ref="AI3:AK3"/>
@@ -8796,9 +8807,13 @@
     <mergeCell ref="Z3:AB3"/>
     <mergeCell ref="AC3:AE3"/>
     <mergeCell ref="AL3:AN3"/>
+    <mergeCell ref="AO3:AQ3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="AZ5:AZ14 AZ16:AZ25 AZ27:AZ37" unlockedFormula="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -8820,7 +8835,7 @@
     <col min="12" max="12" width="13.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" s="36" customFormat="1" ht="13.5" customHeight="1">
+    <row r="1" spans="1:52" s="18" customFormat="1" ht="13.5" customHeight="1">
       <c r="A1" s="29" t="s">
         <v>3</v>
       </c>
@@ -8899,321 +8914,321 @@
       </c>
       <c r="AU1" s="30"/>
       <c r="AV1" s="30"/>
-      <c r="AW1" s="19" t="s">
+      <c r="AW1" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="AX1" s="20"/>
-      <c r="AY1" s="21"/>
+      <c r="AX1" s="37"/>
+      <c r="AY1" s="38"/>
       <c r="AZ1"/>
     </row>
-    <row r="2" spans="1:52" s="36" customFormat="1" ht="14.25" thickBot="1">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:52" s="18" customFormat="1" ht="14.25" thickBot="1">
+      <c r="A2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="L2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="M2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="N2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="O2" s="7" t="s">
+      <c r="O2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="P2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="Q2" s="6" t="s">
+      <c r="Q2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="R2" s="7" t="s">
+      <c r="R2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="S2" s="6" t="s">
+      <c r="S2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="T2" s="6" t="s">
+      <c r="T2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="U2" s="7" t="s">
+      <c r="U2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="V2" s="6" t="s">
+      <c r="V2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="W2" s="6" t="s">
+      <c r="W2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="X2" s="7" t="s">
+      <c r="X2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="Y2" s="6" t="s">
+      <c r="Y2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="Z2" s="6" t="s">
+      <c r="Z2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="AA2" s="7" t="s">
+      <c r="AA2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="AB2" s="6" t="s">
+      <c r="AB2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="AC2" s="6" t="s">
+      <c r="AC2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="AD2" s="7" t="s">
+      <c r="AD2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="AE2" s="6" t="s">
+      <c r="AE2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="AF2" s="6" t="s">
+      <c r="AF2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="AG2" s="7" t="s">
+      <c r="AG2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="AH2" s="6" t="s">
+      <c r="AH2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="AI2" s="6" t="s">
+      <c r="AI2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="AJ2" s="7" t="s">
+      <c r="AJ2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="AK2" s="6" t="s">
+      <c r="AK2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="AL2" s="6" t="s">
+      <c r="AL2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="AM2" s="7" t="s">
+      <c r="AM2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="AN2" s="6" t="s">
+      <c r="AN2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="AO2" s="6" t="s">
+      <c r="AO2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="AP2" s="7" t="s">
+      <c r="AP2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="AQ2" s="6" t="s">
+      <c r="AQ2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="AR2" s="6" t="s">
+      <c r="AR2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="AS2" s="7" t="s">
+      <c r="AS2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="AT2" s="6" t="s">
+      <c r="AT2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="AU2" s="6" t="s">
+      <c r="AU2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="AV2" s="7" t="s">
+      <c r="AV2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="AW2" s="8" t="s">
+      <c r="AW2" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="AX2" s="8" t="s">
+      <c r="AX2" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="AY2" s="9" t="s">
+      <c r="AY2" s="8" t="s">
         <v>25</v>
       </c>
       <c r="AZ2"/>
     </row>
-    <row r="3" spans="1:52" s="39" customFormat="1">
-      <c r="A3" s="38" t="s">
+    <row r="3" spans="1:52" s="21" customFormat="1">
+      <c r="A3" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="38" t="s">
+      <c r="C3" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="38" t="s">
+      <c r="D3" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="38" t="s">
+      <c r="E3" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="38" t="s">
+      <c r="F3" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="G3" s="38" t="s">
+      <c r="G3" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="H3" s="38" t="s">
+      <c r="H3" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="I3" s="38" t="s">
+      <c r="I3" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="J3" s="38" t="s">
+      <c r="J3" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="K3" s="38" t="s">
+      <c r="K3" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="L3" s="38" t="s">
+      <c r="L3" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="M3" s="38" t="s">
+      <c r="M3" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="N3" s="38" t="s">
+      <c r="N3" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="O3" s="38" t="s">
+      <c r="O3" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="P3" s="38" t="s">
+      <c r="P3" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="Q3" s="38" t="s">
+      <c r="Q3" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="R3" s="38" t="s">
+      <c r="R3" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="S3" s="38" t="s">
+      <c r="S3" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="T3" s="38" t="s">
+      <c r="T3" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="U3" s="38" t="s">
+      <c r="U3" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="V3" s="38" t="s">
+      <c r="V3" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="W3" s="38" t="s">
+      <c r="W3" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="X3" s="38" t="s">
+      <c r="X3" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="Y3" s="38" t="s">
+      <c r="Y3" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="Z3" s="38" t="s">
+      <c r="Z3" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="AA3" s="38" t="s">
+      <c r="AA3" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="AB3" s="38" t="s">
+      <c r="AB3" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="AC3" s="38" t="s">
+      <c r="AC3" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="AD3" s="38" t="s">
+      <c r="AD3" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="AE3" s="38" t="s">
+      <c r="AE3" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="AF3" s="38" t="s">
+      <c r="AF3" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="AG3" s="38" t="s">
+      <c r="AG3" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="AH3" s="38" t="s">
+      <c r="AH3" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="AI3" s="38" t="s">
+      <c r="AI3" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="AJ3" s="38" t="s">
+      <c r="AJ3" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="AK3" s="38" t="s">
+      <c r="AK3" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="AL3" s="38" t="s">
+      <c r="AL3" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="AM3" s="38" t="s">
+      <c r="AM3" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="AN3" s="38" t="s">
+      <c r="AN3" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="AO3" s="38" t="s">
+      <c r="AO3" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="AP3" s="38" t="s">
+      <c r="AP3" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="AQ3" s="38" t="s">
+      <c r="AQ3" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="AR3" s="38" t="s">
+      <c r="AR3" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="AS3" s="38" t="s">
+      <c r="AS3" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="AT3" s="38" t="s">
+      <c r="AT3" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="AU3" s="38" t="s">
+      <c r="AU3" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="AV3" s="38" t="s">
+      <c r="AV3" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="AW3" s="38" t="s">
+      <c r="AW3" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="AX3" s="38" t="s">
+      <c r="AX3" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="AY3" s="38" t="s">
+      <c r="AY3" s="20" t="s">
         <v>81</v>
       </c>
     </row>
@@ -9229,12 +9244,12 @@
     <mergeCell ref="AE1:AG1"/>
     <mergeCell ref="AH1:AJ1"/>
     <mergeCell ref="AK1:AM1"/>
+    <mergeCell ref="S1:U1"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:H1"/>
     <mergeCell ref="I1:L1"/>
     <mergeCell ref="M1:O1"/>
     <mergeCell ref="P1:R1"/>
-    <mergeCell ref="S1:U1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9252,7 +9267,7 @@
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="17" t="s">
         <v>30</v>
       </c>
       <c r="B1">

--- a/excel/finished/wg8#高炉/8高炉冷却水冷却壁月报.xlsx
+++ b/excel/finished/wg8#高炉/8高炉冷却水冷却壁月报.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E84235F-CC28-43D9-8150-088B01398174}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B938FBD-8ECF-4BB9-AF38-3B2BBB134CB4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1200" yWindow="-120" windowWidth="27720" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,10 +27,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="85">
-  <si>
-    <t>日
-期</t>
-  </si>
   <si>
     <t>风口</t>
   </si>
@@ -136,10 +132,6 @@
   </si>
   <si>
     <t>BF8_L2C_BD_TI7002B_1d_avg</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>BF8_L2C_BD_FI7201_1d_avg - BF8_L2C_BD_FI7202_1d_avg</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
@@ -294,6 +286,15 @@
   </si>
   <si>
     <t>℃</t>
+  </si>
+  <si>
+    <t>BF8_L2C_BD_FI2103_1d_avg - BF8_L2C_BD_FI7201_1d_avg</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>日
+期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -686,84 +687,6 @@
       <alignment vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="13" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="13" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
@@ -773,10 +696,6 @@
     </xf>
     <xf numFmtId="176" fontId="12" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -799,6 +718,88 @@
     </xf>
     <xf numFmtId="177" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1142,532 +1143,532 @@
   <dimension ref="A1:AZ40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:M2"/>
+      <selection activeCell="A2" sqref="A2:A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" style="13"/>
-    <col min="2" max="52" width="10.625" style="50" customWidth="1"/>
+    <col min="2" max="52" width="10.625" style="28" customWidth="1"/>
     <col min="53" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:52" ht="27.75" thickBot="1">
-      <c r="A1" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="26"/>
-      <c r="Q1" s="26"/>
-      <c r="R1" s="26"/>
-      <c r="S1" s="26"/>
-      <c r="T1" s="26"/>
-      <c r="U1" s="26"/>
-      <c r="V1" s="26"/>
-      <c r="W1" s="26"/>
-      <c r="X1" s="26"/>
-      <c r="Y1" s="26"/>
-      <c r="Z1" s="26"/>
-      <c r="AA1" s="26"/>
-      <c r="AB1" s="26"/>
-      <c r="AC1" s="26"/>
-      <c r="AD1" s="26"/>
-      <c r="AE1" s="26"/>
-      <c r="AF1" s="26"/>
-      <c r="AG1" s="26"/>
-      <c r="AH1" s="26"/>
-      <c r="AI1" s="26"/>
-      <c r="AJ1" s="26"/>
-      <c r="AK1" s="26"/>
-      <c r="AL1" s="26"/>
-      <c r="AM1" s="26"/>
-      <c r="AN1" s="26"/>
-      <c r="AO1" s="26"/>
-      <c r="AP1" s="26"/>
-      <c r="AQ1" s="26"/>
-      <c r="AR1" s="26"/>
-      <c r="AS1" s="26"/>
-      <c r="AT1" s="26"/>
-      <c r="AU1" s="26"/>
-      <c r="AV1" s="26"/>
-      <c r="AW1" s="26"/>
-      <c r="AX1" s="26"/>
-      <c r="AY1" s="26"/>
-      <c r="AZ1" s="26"/>
+      <c r="A1" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="37"/>
+      <c r="S1" s="37"/>
+      <c r="T1" s="37"/>
+      <c r="U1" s="37"/>
+      <c r="V1" s="37"/>
+      <c r="W1" s="37"/>
+      <c r="X1" s="37"/>
+      <c r="Y1" s="37"/>
+      <c r="Z1" s="37"/>
+      <c r="AA1" s="37"/>
+      <c r="AB1" s="37"/>
+      <c r="AC1" s="37"/>
+      <c r="AD1" s="37"/>
+      <c r="AE1" s="37"/>
+      <c r="AF1" s="37"/>
+      <c r="AG1" s="37"/>
+      <c r="AH1" s="37"/>
+      <c r="AI1" s="37"/>
+      <c r="AJ1" s="37"/>
+      <c r="AK1" s="37"/>
+      <c r="AL1" s="37"/>
+      <c r="AM1" s="37"/>
+      <c r="AN1" s="37"/>
+      <c r="AO1" s="37"/>
+      <c r="AP1" s="37"/>
+      <c r="AQ1" s="37"/>
+      <c r="AR1" s="37"/>
+      <c r="AS1" s="37"/>
+      <c r="AT1" s="37"/>
+      <c r="AU1" s="37"/>
+      <c r="AV1" s="37"/>
+      <c r="AW1" s="37"/>
+      <c r="AX1" s="37"/>
+      <c r="AY1" s="37"/>
+      <c r="AZ1" s="37"/>
     </row>
     <row r="2" spans="1:52" ht="14.25">
-      <c r="A2" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="O2" s="30"/>
-      <c r="P2" s="30"/>
-      <c r="Q2" s="30"/>
-      <c r="R2" s="30"/>
-      <c r="S2" s="30"/>
-      <c r="T2" s="30"/>
-      <c r="U2" s="30"/>
-      <c r="V2" s="30"/>
-      <c r="W2" s="30"/>
-      <c r="X2" s="30"/>
-      <c r="Y2" s="30"/>
-      <c r="Z2" s="30"/>
-      <c r="AA2" s="30"/>
-      <c r="AB2" s="30"/>
-      <c r="AC2" s="30"/>
-      <c r="AD2" s="30"/>
-      <c r="AE2" s="30"/>
-      <c r="AF2" s="30"/>
-      <c r="AG2" s="30"/>
-      <c r="AH2" s="30"/>
-      <c r="AI2" s="30"/>
-      <c r="AJ2" s="30"/>
-      <c r="AK2" s="30"/>
-      <c r="AL2" s="30"/>
-      <c r="AM2" s="30"/>
-      <c r="AN2" s="30"/>
-      <c r="AO2" s="30"/>
-      <c r="AP2" s="30"/>
-      <c r="AQ2" s="30"/>
-      <c r="AR2" s="30"/>
-      <c r="AS2" s="30"/>
-      <c r="AT2" s="30"/>
-      <c r="AU2" s="30"/>
-      <c r="AV2" s="30"/>
-      <c r="AW2" s="30"/>
-      <c r="AX2" s="30"/>
-      <c r="AY2" s="30"/>
-      <c r="AZ2" s="33"/>
+      <c r="A2" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" s="41" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="O2" s="41"/>
+      <c r="P2" s="41"/>
+      <c r="Q2" s="41"/>
+      <c r="R2" s="41"/>
+      <c r="S2" s="41"/>
+      <c r="T2" s="41"/>
+      <c r="U2" s="41"/>
+      <c r="V2" s="41"/>
+      <c r="W2" s="41"/>
+      <c r="X2" s="41"/>
+      <c r="Y2" s="41"/>
+      <c r="Z2" s="41"/>
+      <c r="AA2" s="41"/>
+      <c r="AB2" s="41"/>
+      <c r="AC2" s="41"/>
+      <c r="AD2" s="41"/>
+      <c r="AE2" s="41"/>
+      <c r="AF2" s="41"/>
+      <c r="AG2" s="41"/>
+      <c r="AH2" s="41"/>
+      <c r="AI2" s="41"/>
+      <c r="AJ2" s="41"/>
+      <c r="AK2" s="41"/>
+      <c r="AL2" s="41"/>
+      <c r="AM2" s="41"/>
+      <c r="AN2" s="41"/>
+      <c r="AO2" s="41"/>
+      <c r="AP2" s="41"/>
+      <c r="AQ2" s="41"/>
+      <c r="AR2" s="41"/>
+      <c r="AS2" s="41"/>
+      <c r="AT2" s="41"/>
+      <c r="AU2" s="41"/>
+      <c r="AV2" s="41"/>
+      <c r="AW2" s="41"/>
+      <c r="AX2" s="41"/>
+      <c r="AY2" s="41"/>
+      <c r="AZ2" s="44"/>
     </row>
     <row r="3" spans="1:52" ht="14.25">
-      <c r="A3" s="34"/>
-      <c r="B3" s="35" t="s">
+      <c r="A3" s="39"/>
+      <c r="B3" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="35" t="s">
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="35" t="s">
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="36"/>
-      <c r="L3" s="36"/>
-      <c r="M3" s="36"/>
-      <c r="N3" s="35" t="s">
+      <c r="O3" s="31"/>
+      <c r="P3" s="31"/>
+      <c r="Q3" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="O3" s="36"/>
-      <c r="P3" s="36"/>
-      <c r="Q3" s="35" t="s">
+      <c r="R3" s="31"/>
+      <c r="S3" s="31"/>
+      <c r="T3" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="R3" s="36"/>
-      <c r="S3" s="36"/>
-      <c r="T3" s="35" t="s">
+      <c r="U3" s="31"/>
+      <c r="V3" s="31"/>
+      <c r="W3" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="U3" s="36"/>
-      <c r="V3" s="36"/>
-      <c r="W3" s="35" t="s">
+      <c r="X3" s="31"/>
+      <c r="Y3" s="31"/>
+      <c r="Z3" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="X3" s="36"/>
-      <c r="Y3" s="36"/>
-      <c r="Z3" s="35" t="s">
+      <c r="AA3" s="31"/>
+      <c r="AB3" s="31"/>
+      <c r="AC3" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="AA3" s="36"/>
-      <c r="AB3" s="36"/>
-      <c r="AC3" s="37" t="s">
+      <c r="AD3" s="36"/>
+      <c r="AE3" s="36"/>
+      <c r="AF3" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="AD3" s="38"/>
-      <c r="AE3" s="38"/>
-      <c r="AF3" s="35" t="s">
+      <c r="AG3" s="31"/>
+      <c r="AH3" s="31"/>
+      <c r="AI3" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="AG3" s="36"/>
-      <c r="AH3" s="36"/>
-      <c r="AI3" s="35" t="s">
+      <c r="AJ3" s="31"/>
+      <c r="AK3" s="31"/>
+      <c r="AL3" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="AJ3" s="36"/>
-      <c r="AK3" s="36"/>
-      <c r="AL3" s="35" t="s">
+      <c r="AM3" s="31"/>
+      <c r="AN3" s="31"/>
+      <c r="AO3" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="AM3" s="36"/>
-      <c r="AN3" s="36"/>
-      <c r="AO3" s="35" t="s">
+      <c r="AP3" s="31"/>
+      <c r="AQ3" s="31"/>
+      <c r="AR3" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="AP3" s="36"/>
-      <c r="AQ3" s="36"/>
-      <c r="AR3" s="35" t="s">
+      <c r="AS3" s="31"/>
+      <c r="AT3" s="31"/>
+      <c r="AU3" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="AS3" s="36"/>
-      <c r="AT3" s="36"/>
-      <c r="AU3" s="35" t="s">
+      <c r="AV3" s="31"/>
+      <c r="AW3" s="31"/>
+      <c r="AX3" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="AV3" s="36"/>
-      <c r="AW3" s="36"/>
-      <c r="AX3" s="39" t="s">
-        <v>16</v>
-      </c>
-      <c r="AY3" s="40"/>
-      <c r="AZ3" s="41"/>
+      <c r="AY3" s="33"/>
+      <c r="AZ3" s="34"/>
     </row>
     <row r="4" spans="1:52" ht="14.25">
-      <c r="A4" s="34"/>
-      <c r="B4" s="42" t="s">
+      <c r="A4" s="39"/>
+      <c r="B4" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="42" t="s">
+      <c r="D4" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="42" t="s">
+      <c r="E4" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="42" t="s">
+      <c r="F4" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="M4" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="N4" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="42" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="42" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" s="42" t="s">
+      <c r="O4" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="P4" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q4" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="42" t="s">
-        <v>17</v>
-      </c>
-      <c r="K4" s="42" t="s">
-        <v>18</v>
-      </c>
-      <c r="L4" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="M4" s="42" t="s">
+      <c r="R4" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="S4" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="T4" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="N4" s="42" t="s">
+      <c r="U4" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="O4" s="42" t="s">
+      <c r="V4" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="P4" s="42" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q4" s="42" t="s">
+      <c r="W4" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="X4" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="R4" s="42" t="s">
+      <c r="Y4" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="S4" s="42" t="s">
-        <v>23</v>
-      </c>
-      <c r="T4" s="42" t="s">
+      <c r="Z4" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA4" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="U4" s="42" t="s">
+      <c r="AB4" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="V4" s="42" t="s">
-        <v>23</v>
-      </c>
-      <c r="W4" s="42" t="s">
+      <c r="AC4" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD4" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="X4" s="42" t="s">
+      <c r="AE4" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="Y4" s="42" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z4" s="42" t="s">
+      <c r="AF4" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG4" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="AA4" s="42" t="s">
+      <c r="AH4" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="AB4" s="42" t="s">
-        <v>23</v>
-      </c>
-      <c r="AC4" s="42" t="s">
+      <c r="AI4" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ4" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="AD4" s="42" t="s">
+      <c r="AK4" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="AE4" s="42" t="s">
-        <v>23</v>
-      </c>
-      <c r="AF4" s="42" t="s">
+      <c r="AL4" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="AM4" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="AG4" s="42" t="s">
+      <c r="AN4" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="AH4" s="42" t="s">
-        <v>23</v>
-      </c>
-      <c r="AI4" s="42" t="s">
+      <c r="AO4" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="AP4" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="AJ4" s="42" t="s">
+      <c r="AQ4" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="AK4" s="42" t="s">
-        <v>23</v>
-      </c>
-      <c r="AL4" s="42" t="s">
+      <c r="AR4" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="AS4" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="AM4" s="42" t="s">
+      <c r="AT4" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="AN4" s="42" t="s">
-        <v>23</v>
-      </c>
-      <c r="AO4" s="42" t="s">
+      <c r="AU4" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="AV4" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="AP4" s="42" t="s">
+      <c r="AW4" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="AQ4" s="42" t="s">
-        <v>23</v>
-      </c>
-      <c r="AR4" s="42" t="s">
+      <c r="AX4" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="AY4" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="AS4" s="42" t="s">
+      <c r="AZ4" s="23" t="s">
         <v>22</v>
-      </c>
-      <c r="AT4" s="42" t="s">
-        <v>23</v>
-      </c>
-      <c r="AU4" s="42" t="s">
-        <v>21</v>
-      </c>
-      <c r="AV4" s="42" t="s">
-        <v>22</v>
-      </c>
-      <c r="AW4" s="42" t="s">
-        <v>23</v>
-      </c>
-      <c r="AX4" s="43" t="s">
-        <v>21</v>
-      </c>
-      <c r="AY4" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="AZ4" s="44" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:52" ht="14.25">
-      <c r="A5" s="45"/>
-      <c r="B5" s="46" t="s">
-        <v>83</v>
-      </c>
-      <c r="C5" s="46" t="s">
-        <v>84</v>
-      </c>
-      <c r="D5" s="46" t="s">
-        <v>84</v>
-      </c>
-      <c r="E5" s="46" t="s">
-        <v>84</v>
-      </c>
-      <c r="F5" s="46" t="s">
-        <v>83</v>
-      </c>
-      <c r="G5" s="46" t="s">
-        <v>84</v>
-      </c>
-      <c r="H5" s="46" t="s">
-        <v>84</v>
-      </c>
-      <c r="I5" s="46" t="s">
-        <v>84</v>
-      </c>
-      <c r="J5" s="46" t="s">
-        <v>83</v>
-      </c>
-      <c r="K5" s="46" t="s">
-        <v>84</v>
-      </c>
-      <c r="L5" s="46" t="s">
-        <v>84</v>
-      </c>
-      <c r="M5" s="46" t="s">
-        <v>84</v>
-      </c>
-      <c r="N5" s="46" t="s">
-        <v>84</v>
-      </c>
-      <c r="O5" s="46" t="s">
-        <v>84</v>
-      </c>
-      <c r="P5" s="46" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q5" s="46" t="s">
-        <v>84</v>
-      </c>
-      <c r="R5" s="46" t="s">
-        <v>84</v>
-      </c>
-      <c r="S5" s="46" t="s">
-        <v>84</v>
-      </c>
-      <c r="T5" s="46" t="s">
-        <v>84</v>
-      </c>
-      <c r="U5" s="46" t="s">
-        <v>84</v>
-      </c>
-      <c r="V5" s="46" t="s">
-        <v>84</v>
-      </c>
-      <c r="W5" s="46" t="s">
-        <v>84</v>
-      </c>
-      <c r="X5" s="46" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y5" s="46" t="s">
-        <v>84</v>
-      </c>
-      <c r="Z5" s="46" t="s">
-        <v>84</v>
-      </c>
-      <c r="AA5" s="46" t="s">
-        <v>84</v>
-      </c>
-      <c r="AB5" s="46" t="s">
-        <v>84</v>
-      </c>
-      <c r="AC5" s="46" t="s">
-        <v>84</v>
-      </c>
-      <c r="AD5" s="46" t="s">
-        <v>84</v>
-      </c>
-      <c r="AE5" s="46" t="s">
-        <v>84</v>
-      </c>
-      <c r="AF5" s="46" t="s">
-        <v>84</v>
-      </c>
-      <c r="AG5" s="46" t="s">
-        <v>84</v>
-      </c>
-      <c r="AH5" s="46" t="s">
-        <v>84</v>
-      </c>
-      <c r="AI5" s="46" t="s">
-        <v>84</v>
-      </c>
-      <c r="AJ5" s="46" t="s">
-        <v>84</v>
-      </c>
-      <c r="AK5" s="46" t="s">
-        <v>84</v>
-      </c>
-      <c r="AL5" s="46" t="s">
-        <v>84</v>
-      </c>
-      <c r="AM5" s="46" t="s">
-        <v>84</v>
-      </c>
-      <c r="AN5" s="46" t="s">
-        <v>84</v>
-      </c>
-      <c r="AO5" s="46" t="s">
-        <v>84</v>
-      </c>
-      <c r="AP5" s="46" t="s">
-        <v>84</v>
-      </c>
-      <c r="AQ5" s="46" t="s">
-        <v>84</v>
-      </c>
-      <c r="AR5" s="46" t="s">
-        <v>84</v>
-      </c>
-      <c r="AS5" s="46" t="s">
-        <v>84</v>
-      </c>
-      <c r="AT5" s="46" t="s">
-        <v>84</v>
-      </c>
-      <c r="AU5" s="46" t="s">
-        <v>84</v>
-      </c>
-      <c r="AV5" s="46" t="s">
-        <v>84</v>
-      </c>
-      <c r="AW5" s="46" t="s">
-        <v>84</v>
-      </c>
-      <c r="AX5" s="46" t="s">
-        <v>84</v>
-      </c>
-      <c r="AY5" s="46" t="s">
-        <v>84</v>
-      </c>
-      <c r="AZ5" s="47" t="s">
-        <v>84</v>
+      <c r="A5" s="40"/>
+      <c r="B5" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="E5" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="F5" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="G5" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="H5" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="I5" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="J5" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="K5" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="L5" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="M5" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="N5" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="O5" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="P5" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q5" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="R5" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="S5" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="T5" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="U5" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="V5" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="W5" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="X5" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y5" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z5" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA5" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB5" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC5" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="AD5" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="AE5" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="AF5" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG5" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="AH5" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI5" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="AJ5" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="AK5" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="AL5" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM5" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="AN5" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="AO5" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="AP5" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="AQ5" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="AR5" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="AS5" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="AT5" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="AU5" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="AV5" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="AW5" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="AX5" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="AY5" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="AZ5" s="25" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:52" ht="15" customHeight="1">
-      <c r="A6" s="48">
+      <c r="A6" s="26">
         <v>1</v>
       </c>
       <c r="B6" s="14" t="str">
@@ -1870,13 +1871,13 @@
         <f>IF(_data!AX4="","",_data!AX4)</f>
         <v/>
       </c>
-      <c r="AZ6" s="51" t="str">
+      <c r="AZ6" s="29" t="str">
         <f>IF(_data!AY4="","",_data!AY4)</f>
         <v/>
       </c>
     </row>
     <row r="7" spans="1:52" ht="15" customHeight="1">
-      <c r="A7" s="48">
+      <c r="A7" s="26">
         <v>2</v>
       </c>
       <c r="B7" s="14" t="str">
@@ -2079,13 +2080,13 @@
         <f>IF(_data!AX5="","",_data!AX5)</f>
         <v/>
       </c>
-      <c r="AZ7" s="51" t="str">
+      <c r="AZ7" s="29" t="str">
         <f>IF(_data!AY5="","",_data!AY5)</f>
         <v/>
       </c>
     </row>
     <row r="8" spans="1:52" ht="15" customHeight="1">
-      <c r="A8" s="48">
+      <c r="A8" s="26">
         <v>3</v>
       </c>
       <c r="B8" s="14" t="str">
@@ -2288,13 +2289,13 @@
         <f>IF(_data!AX6="","",_data!AX6)</f>
         <v/>
       </c>
-      <c r="AZ8" s="51" t="str">
+      <c r="AZ8" s="29" t="str">
         <f>IF(_data!AY6="","",_data!AY6)</f>
         <v/>
       </c>
     </row>
     <row r="9" spans="1:52" ht="15" customHeight="1">
-      <c r="A9" s="48">
+      <c r="A9" s="26">
         <v>4</v>
       </c>
       <c r="B9" s="14" t="str">
@@ -2497,13 +2498,13 @@
         <f>IF(_data!AX7="","",_data!AX7)</f>
         <v/>
       </c>
-      <c r="AZ9" s="51" t="str">
+      <c r="AZ9" s="29" t="str">
         <f>IF(_data!AY7="","",_data!AY7)</f>
         <v/>
       </c>
     </row>
     <row r="10" spans="1:52" ht="15" customHeight="1">
-      <c r="A10" s="48">
+      <c r="A10" s="26">
         <v>5</v>
       </c>
       <c r="B10" s="14" t="str">
@@ -2706,13 +2707,13 @@
         <f>IF(_data!AX8="","",_data!AX8)</f>
         <v/>
       </c>
-      <c r="AZ10" s="51" t="str">
+      <c r="AZ10" s="29" t="str">
         <f>IF(_data!AY8="","",_data!AY8)</f>
         <v/>
       </c>
     </row>
     <row r="11" spans="1:52" ht="15" customHeight="1">
-      <c r="A11" s="48">
+      <c r="A11" s="26">
         <v>6</v>
       </c>
       <c r="B11" s="14" t="str">
@@ -2915,13 +2916,13 @@
         <f>IF(_data!AX9="","",_data!AX9)</f>
         <v/>
       </c>
-      <c r="AZ11" s="51" t="str">
+      <c r="AZ11" s="29" t="str">
         <f>IF(_data!AY9="","",_data!AY9)</f>
         <v/>
       </c>
     </row>
     <row r="12" spans="1:52" ht="15" customHeight="1">
-      <c r="A12" s="48">
+      <c r="A12" s="26">
         <v>7</v>
       </c>
       <c r="B12" s="14" t="str">
@@ -3124,13 +3125,13 @@
         <f>IF(_data!AX10="","",_data!AX10)</f>
         <v/>
       </c>
-      <c r="AZ12" s="51" t="str">
+      <c r="AZ12" s="29" t="str">
         <f>IF(_data!AY10="","",_data!AY10)</f>
         <v/>
       </c>
     </row>
     <row r="13" spans="1:52" ht="15" customHeight="1">
-      <c r="A13" s="48">
+      <c r="A13" s="26">
         <v>8</v>
       </c>
       <c r="B13" s="14" t="str">
@@ -3333,13 +3334,13 @@
         <f>IF(_data!AX11="","",_data!AX11)</f>
         <v/>
       </c>
-      <c r="AZ13" s="51" t="str">
+      <c r="AZ13" s="29" t="str">
         <f>IF(_data!AY11="","",_data!AY11)</f>
         <v/>
       </c>
     </row>
     <row r="14" spans="1:52" ht="15" customHeight="1">
-      <c r="A14" s="48">
+      <c r="A14" s="26">
         <v>9</v>
       </c>
       <c r="B14" s="14" t="str">
@@ -3542,13 +3543,13 @@
         <f>IF(_data!AX12="","",_data!AX12)</f>
         <v/>
       </c>
-      <c r="AZ14" s="51" t="str">
+      <c r="AZ14" s="29" t="str">
         <f>IF(_data!AY12="","",_data!AY12)</f>
         <v/>
       </c>
     </row>
     <row r="15" spans="1:52" ht="15" customHeight="1">
-      <c r="A15" s="48">
+      <c r="A15" s="26">
         <v>10</v>
       </c>
       <c r="B15" s="14" t="str">
@@ -3751,14 +3752,14 @@
         <f>IF(_data!AX13="","",_data!AX13)</f>
         <v/>
       </c>
-      <c r="AZ15" s="51" t="str">
+      <c r="AZ15" s="29" t="str">
         <f>IF(_data!AY13="","",_data!AY13)</f>
         <v/>
       </c>
     </row>
     <row r="16" spans="1:52" ht="15" customHeight="1">
-      <c r="A16" s="48" t="s">
-        <v>24</v>
+      <c r="A16" s="26" t="s">
+        <v>23</v>
       </c>
       <c r="B16" s="6" t="str">
         <f>IF(ISERROR(AVERAGE(B6:B15)),"",AVERAGE(B6:B15))</f>
@@ -3966,7 +3967,7 @@
       </c>
     </row>
     <row r="17" spans="1:52" ht="15" customHeight="1">
-      <c r="A17" s="48">
+      <c r="A17" s="26">
         <v>11</v>
       </c>
       <c r="B17" s="1" t="str">
@@ -4169,13 +4170,13 @@
         <f>IF(_data!AX15="","",_data!AX15)</f>
         <v/>
       </c>
-      <c r="AZ17" s="51" t="str">
+      <c r="AZ17" s="29" t="str">
         <f>IF(_data!AY15="","",_data!AY15)</f>
         <v/>
       </c>
     </row>
     <row r="18" spans="1:52" ht="15" customHeight="1">
-      <c r="A18" s="48">
+      <c r="A18" s="26">
         <v>12</v>
       </c>
       <c r="B18" s="1" t="str">
@@ -4378,13 +4379,13 @@
         <f>IF(_data!AX16="","",_data!AX16)</f>
         <v/>
       </c>
-      <c r="AZ18" s="51" t="str">
+      <c r="AZ18" s="29" t="str">
         <f>IF(_data!AY16="","",_data!AY16)</f>
         <v/>
       </c>
     </row>
     <row r="19" spans="1:52" ht="15" customHeight="1">
-      <c r="A19" s="48">
+      <c r="A19" s="26">
         <v>13</v>
       </c>
       <c r="B19" s="1" t="str">
@@ -4587,13 +4588,13 @@
         <f>IF(_data!AX17="","",_data!AX17)</f>
         <v/>
       </c>
-      <c r="AZ19" s="51" t="str">
+      <c r="AZ19" s="29" t="str">
         <f>IF(_data!AY17="","",_data!AY17)</f>
         <v/>
       </c>
     </row>
     <row r="20" spans="1:52" ht="15" customHeight="1">
-      <c r="A20" s="48">
+      <c r="A20" s="26">
         <v>14</v>
       </c>
       <c r="B20" s="1" t="str">
@@ -4796,13 +4797,13 @@
         <f>IF(_data!AX18="","",_data!AX18)</f>
         <v/>
       </c>
-      <c r="AZ20" s="51" t="str">
+      <c r="AZ20" s="29" t="str">
         <f>IF(_data!AY18="","",_data!AY18)</f>
         <v/>
       </c>
     </row>
     <row r="21" spans="1:52" ht="15" customHeight="1">
-      <c r="A21" s="48">
+      <c r="A21" s="26">
         <v>15</v>
       </c>
       <c r="B21" s="1" t="str">
@@ -5005,13 +5006,13 @@
         <f>IF(_data!AX19="","",_data!AX19)</f>
         <v/>
       </c>
-      <c r="AZ21" s="51" t="str">
+      <c r="AZ21" s="29" t="str">
         <f>IF(_data!AY19="","",_data!AY19)</f>
         <v/>
       </c>
     </row>
     <row r="22" spans="1:52" ht="15" customHeight="1">
-      <c r="A22" s="48">
+      <c r="A22" s="26">
         <v>16</v>
       </c>
       <c r="B22" s="1" t="str">
@@ -5214,13 +5215,13 @@
         <f>IF(_data!AX20="","",_data!AX20)</f>
         <v/>
       </c>
-      <c r="AZ22" s="51" t="str">
+      <c r="AZ22" s="29" t="str">
         <f>IF(_data!AY20="","",_data!AY20)</f>
         <v/>
       </c>
     </row>
     <row r="23" spans="1:52" ht="15" customHeight="1">
-      <c r="A23" s="48">
+      <c r="A23" s="26">
         <v>17</v>
       </c>
       <c r="B23" s="1" t="str">
@@ -5423,13 +5424,13 @@
         <f>IF(_data!AX21="","",_data!AX21)</f>
         <v/>
       </c>
-      <c r="AZ23" s="51" t="str">
+      <c r="AZ23" s="29" t="str">
         <f>IF(_data!AY21="","",_data!AY21)</f>
         <v/>
       </c>
     </row>
     <row r="24" spans="1:52" ht="15" customHeight="1">
-      <c r="A24" s="48">
+      <c r="A24" s="26">
         <v>18</v>
       </c>
       <c r="B24" s="1" t="str">
@@ -5632,13 +5633,13 @@
         <f>IF(_data!AX22="","",_data!AX22)</f>
         <v/>
       </c>
-      <c r="AZ24" s="51" t="str">
+      <c r="AZ24" s="29" t="str">
         <f>IF(_data!AY22="","",_data!AY22)</f>
         <v/>
       </c>
     </row>
     <row r="25" spans="1:52" ht="15" customHeight="1">
-      <c r="A25" s="48">
+      <c r="A25" s="26">
         <v>19</v>
       </c>
       <c r="B25" s="1" t="str">
@@ -5841,13 +5842,13 @@
         <f>IF(_data!AX23="","",_data!AX23)</f>
         <v/>
       </c>
-      <c r="AZ25" s="51" t="str">
+      <c r="AZ25" s="29" t="str">
         <f>IF(_data!AY23="","",_data!AY23)</f>
         <v/>
       </c>
     </row>
     <row r="26" spans="1:52" ht="15" customHeight="1">
-      <c r="A26" s="48">
+      <c r="A26" s="26">
         <v>20</v>
       </c>
       <c r="B26" s="1" t="str">
@@ -6050,14 +6051,14 @@
         <f>IF(_data!AX24="","",_data!AX24)</f>
         <v/>
       </c>
-      <c r="AZ26" s="51" t="str">
+      <c r="AZ26" s="29" t="str">
         <f>IF(_data!AY24="","",_data!AY24)</f>
         <v/>
       </c>
     </row>
     <row r="27" spans="1:52" ht="15" customHeight="1">
-      <c r="A27" s="48" t="s">
-        <v>25</v>
+      <c r="A27" s="26" t="s">
+        <v>24</v>
       </c>
       <c r="B27" s="6" t="str">
         <f>IF(ISERROR(AVERAGE(B17:B26)),"",AVERAGE(B17:B26))</f>
@@ -6265,7 +6266,7 @@
       </c>
     </row>
     <row r="28" spans="1:52" ht="15" customHeight="1">
-      <c r="A28" s="48">
+      <c r="A28" s="26">
         <v>21</v>
       </c>
       <c r="B28" s="1" t="str">
@@ -6468,13 +6469,13 @@
         <f>IF(_data!AX26="","",_data!AX26)</f>
         <v/>
       </c>
-      <c r="AZ28" s="51" t="str">
+      <c r="AZ28" s="29" t="str">
         <f>IF(_data!AY26="","",_data!AY26)</f>
         <v/>
       </c>
     </row>
     <row r="29" spans="1:52" ht="15" customHeight="1">
-      <c r="A29" s="48">
+      <c r="A29" s="26">
         <v>22</v>
       </c>
       <c r="B29" s="1" t="str">
@@ -6677,13 +6678,13 @@
         <f>IF(_data!AX27="","",_data!AX27)</f>
         <v/>
       </c>
-      <c r="AZ29" s="51" t="str">
+      <c r="AZ29" s="29" t="str">
         <f>IF(_data!AY27="","",_data!AY27)</f>
         <v/>
       </c>
     </row>
     <row r="30" spans="1:52" ht="15" customHeight="1">
-      <c r="A30" s="48">
+      <c r="A30" s="26">
         <v>23</v>
       </c>
       <c r="B30" s="1" t="str">
@@ -6886,13 +6887,13 @@
         <f>IF(_data!AX28="","",_data!AX28)</f>
         <v/>
       </c>
-      <c r="AZ30" s="51" t="str">
+      <c r="AZ30" s="29" t="str">
         <f>IF(_data!AY28="","",_data!AY28)</f>
         <v/>
       </c>
     </row>
     <row r="31" spans="1:52" ht="15" customHeight="1">
-      <c r="A31" s="48">
+      <c r="A31" s="26">
         <v>24</v>
       </c>
       <c r="B31" s="1" t="str">
@@ -7095,13 +7096,13 @@
         <f>IF(_data!AX29="","",_data!AX29)</f>
         <v/>
       </c>
-      <c r="AZ31" s="51" t="str">
+      <c r="AZ31" s="29" t="str">
         <f>IF(_data!AY29="","",_data!AY29)</f>
         <v/>
       </c>
     </row>
     <row r="32" spans="1:52" ht="15" customHeight="1">
-      <c r="A32" s="48">
+      <c r="A32" s="26">
         <v>25</v>
       </c>
       <c r="B32" s="1" t="str">
@@ -7304,13 +7305,13 @@
         <f>IF(_data!AX30="","",_data!AX30)</f>
         <v/>
       </c>
-      <c r="AZ32" s="51" t="str">
+      <c r="AZ32" s="29" t="str">
         <f>IF(_data!AY30="","",_data!AY30)</f>
         <v/>
       </c>
     </row>
     <row r="33" spans="1:52" ht="15" customHeight="1">
-      <c r="A33" s="48">
+      <c r="A33" s="26">
         <v>26</v>
       </c>
       <c r="B33" s="1" t="str">
@@ -7513,13 +7514,13 @@
         <f>IF(_data!AX31="","",_data!AX31)</f>
         <v/>
       </c>
-      <c r="AZ33" s="51" t="str">
+      <c r="AZ33" s="29" t="str">
         <f>IF(_data!AY31="","",_data!AY31)</f>
         <v/>
       </c>
     </row>
     <row r="34" spans="1:52" ht="15" customHeight="1">
-      <c r="A34" s="48">
+      <c r="A34" s="26">
         <v>27</v>
       </c>
       <c r="B34" s="1" t="str">
@@ -7722,13 +7723,13 @@
         <f>IF(_data!AX32="","",_data!AX32)</f>
         <v/>
       </c>
-      <c r="AZ34" s="51" t="str">
+      <c r="AZ34" s="29" t="str">
         <f>IF(_data!AY32="","",_data!AY32)</f>
         <v/>
       </c>
     </row>
     <row r="35" spans="1:52" ht="15" customHeight="1">
-      <c r="A35" s="48">
+      <c r="A35" s="26">
         <v>28</v>
       </c>
       <c r="B35" s="1" t="str">
@@ -7931,13 +7932,13 @@
         <f>IF(_data!AX33="","",_data!AX33)</f>
         <v/>
       </c>
-      <c r="AZ35" s="51" t="str">
+      <c r="AZ35" s="29" t="str">
         <f>IF(_data!AY33="","",_data!AY33)</f>
         <v/>
       </c>
     </row>
     <row r="36" spans="1:52" ht="15" customHeight="1">
-      <c r="A36" s="48">
+      <c r="A36" s="26">
         <v>29</v>
       </c>
       <c r="B36" s="1" t="str">
@@ -8140,13 +8141,13 @@
         <f>IF(_data!AX34="","",_data!AX34)</f>
         <v/>
       </c>
-      <c r="AZ36" s="51" t="str">
+      <c r="AZ36" s="29" t="str">
         <f>IF(_data!AY34="","",_data!AY34)</f>
         <v/>
       </c>
     </row>
     <row r="37" spans="1:52" ht="15" customHeight="1">
-      <c r="A37" s="48">
+      <c r="A37" s="26">
         <v>30</v>
       </c>
       <c r="B37" s="1" t="str">
@@ -8349,13 +8350,13 @@
         <f>IF(_data!AX35="","",_data!AX35)</f>
         <v/>
       </c>
-      <c r="AZ37" s="51" t="str">
+      <c r="AZ37" s="29" t="str">
         <f>IF(_data!AY35="","",_data!AY35)</f>
         <v/>
       </c>
     </row>
     <row r="38" spans="1:52" ht="15" customHeight="1">
-      <c r="A38" s="48">
+      <c r="A38" s="26">
         <v>31</v>
       </c>
       <c r="B38" s="1" t="str">
@@ -8558,14 +8559,14 @@
         <f>IF(_data!AX36="","",_data!AX36)</f>
         <v/>
       </c>
-      <c r="AZ38" s="51" t="str">
+      <c r="AZ38" s="29" t="str">
         <f>IF(_data!AY36="","",_data!AY36)</f>
         <v/>
       </c>
     </row>
     <row r="39" spans="1:52" ht="15" customHeight="1">
-      <c r="A39" s="48" t="s">
-        <v>26</v>
+      <c r="A39" s="26" t="s">
+        <v>25</v>
       </c>
       <c r="B39" s="6" t="str">
         <f>IF(ISERROR(AVERAGE(B28:B38)),"",AVERAGE(B28:B38))</f>
@@ -8773,8 +8774,8 @@
       </c>
     </row>
     <row r="40" spans="1:52" ht="15" customHeight="1" thickBot="1">
-      <c r="A40" s="49" t="s">
-        <v>27</v>
+      <c r="A40" s="27" t="s">
+        <v>26</v>
       </c>
       <c r="B40" s="9" t="str">
         <f>IF(ISERROR(AVERAGE(B6:B15,B17:B26,B28:B38)),"",AVERAGE(B6:B15,B17:B26,B28:B38))</f>
@@ -8987,6 +8988,16 @@
     <protectedRange sqref="AL40:AW40" name="区域17_1"/>
   </protectedRanges>
   <mergeCells count="20">
+    <mergeCell ref="A1:AZ1"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="N2:AZ2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="J3:M3"/>
+    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="Q3:S3"/>
+    <mergeCell ref="T3:V3"/>
     <mergeCell ref="AO3:AQ3"/>
     <mergeCell ref="AR3:AT3"/>
     <mergeCell ref="AU3:AW3"/>
@@ -8997,19 +9008,10 @@
     <mergeCell ref="AF3:AH3"/>
     <mergeCell ref="AI3:AK3"/>
     <mergeCell ref="AL3:AN3"/>
-    <mergeCell ref="A1:AZ1"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="N2:AZ2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="J3:M3"/>
-    <mergeCell ref="N3:P3"/>
-    <mergeCell ref="Q3:S3"/>
-    <mergeCell ref="T3:V3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -9018,7 +9020,7 @@
   <dimension ref="A1:AZ3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -9032,410 +9034,404 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" s="13" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="21" t="s">
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="21" t="s">
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="21" t="s">
+      <c r="N1" s="46"/>
+      <c r="O1" s="46"/>
+      <c r="P1" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="21" t="s">
+      <c r="Q1" s="46"/>
+      <c r="R1" s="46"/>
+      <c r="S1" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="22"/>
-      <c r="S1" s="21" t="s">
+      <c r="T1" s="46"/>
+      <c r="U1" s="46"/>
+      <c r="V1" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="T1" s="22"/>
-      <c r="U1" s="22"/>
-      <c r="V1" s="21" t="s">
+      <c r="W1" s="46"/>
+      <c r="X1" s="46"/>
+      <c r="Y1" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="W1" s="22"/>
-      <c r="X1" s="22"/>
-      <c r="Y1" s="21" t="s">
+      <c r="Z1" s="46"/>
+      <c r="AA1" s="46"/>
+      <c r="AB1" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="Z1" s="22"/>
-      <c r="AA1" s="22"/>
-      <c r="AB1" s="27" t="s">
+      <c r="AC1" s="51"/>
+      <c r="AD1" s="51"/>
+      <c r="AE1" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="AC1" s="28"/>
-      <c r="AD1" s="28"/>
-      <c r="AE1" s="21" t="s">
+      <c r="AF1" s="46"/>
+      <c r="AG1" s="46"/>
+      <c r="AH1" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="AF1" s="22"/>
-      <c r="AG1" s="22"/>
-      <c r="AH1" s="21" t="s">
+      <c r="AI1" s="46"/>
+      <c r="AJ1" s="46"/>
+      <c r="AK1" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="AI1" s="22"/>
-      <c r="AJ1" s="22"/>
-      <c r="AK1" s="21" t="s">
+      <c r="AL1" s="46"/>
+      <c r="AM1" s="46"/>
+      <c r="AN1" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="AL1" s="22"/>
-      <c r="AM1" s="22"/>
-      <c r="AN1" s="21" t="s">
+      <c r="AO1" s="46"/>
+      <c r="AP1" s="46"/>
+      <c r="AQ1" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="AO1" s="22"/>
-      <c r="AP1" s="22"/>
-      <c r="AQ1" s="21" t="s">
+      <c r="AR1" s="46"/>
+      <c r="AS1" s="46"/>
+      <c r="AT1" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="AR1" s="22"/>
-      <c r="AS1" s="22"/>
-      <c r="AT1" s="21" t="s">
+      <c r="AU1" s="46"/>
+      <c r="AV1" s="46"/>
+      <c r="AW1" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="AU1" s="22"/>
-      <c r="AV1" s="22"/>
-      <c r="AW1" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="AX1" s="24"/>
-      <c r="AY1" s="25"/>
+      <c r="AX1" s="48"/>
+      <c r="AY1" s="49"/>
       <c r="AZ1"/>
     </row>
     <row r="2" spans="1:52" s="13" customFormat="1" ht="14.25" thickBot="1">
       <c r="A2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" s="2" t="s">
+      <c r="N2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="P2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="S2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="T2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="U2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="O2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="P2" s="2" t="s">
+      <c r="V2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="W2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="X2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="R2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="S2" s="2" t="s">
+      <c r="Y2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="AA2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="U2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="V2" s="2" t="s">
+      <c r="AB2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="AD2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="X2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y2" s="2" t="s">
+      <c r="AE2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="Z2" s="2" t="s">
+      <c r="AG2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="AA2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="AB2" s="2" t="s">
+      <c r="AH2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="AC2" s="2" t="s">
+      <c r="AJ2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="AD2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="AE2" s="2" t="s">
+      <c r="AK2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AL2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="AF2" s="2" t="s">
+      <c r="AM2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="AG2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="AH2" s="2" t="s">
+      <c r="AN2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AO2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="AI2" s="2" t="s">
+      <c r="AP2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="AJ2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="AK2" s="2" t="s">
+      <c r="AQ2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AR2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="AL2" s="2" t="s">
+      <c r="AS2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="AM2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="AN2" s="2" t="s">
+      <c r="AT2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AU2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="AO2" s="2" t="s">
+      <c r="AV2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="AP2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="AQ2" s="2" t="s">
+      <c r="AW2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="AX2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="AR2" s="2" t="s">
+      <c r="AY2" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="AS2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="AT2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="AU2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="AV2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="AW2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="AX2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="AY2" s="5" t="s">
-        <v>23</v>
       </c>
       <c r="AZ2"/>
     </row>
     <row r="3" spans="1:52" s="16" customFormat="1">
       <c r="A3" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="C3" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="D3" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="I3" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="J3" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="K3" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="L3" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="G3" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="H3" s="15" t="s">
+      <c r="M3" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="I3" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="J3" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="K3" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="L3" s="15" t="s">
+      <c r="N3" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="O3" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="M3" s="15" t="s">
+      <c r="P3" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="N3" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="O3" s="15" t="s">
+      <c r="Q3" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="P3" s="15" t="s">
+      <c r="R3" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="Q3" s="15" t="s">
+      <c r="S3" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="R3" s="15" t="s">
+      <c r="T3" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="S3" s="15" t="s">
+      <c r="U3" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="T3" s="15" t="s">
+      <c r="V3" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="U3" s="15" t="s">
+      <c r="W3" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="V3" s="15" t="s">
+      <c r="X3" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="W3" s="15" t="s">
+      <c r="Y3" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="X3" s="15" t="s">
+      <c r="Z3" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="Y3" s="15" t="s">
+      <c r="AA3" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="Z3" s="15" t="s">
+      <c r="AB3" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="AA3" s="15" t="s">
+      <c r="AC3" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="AB3" s="15" t="s">
+      <c r="AD3" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="AC3" s="15" t="s">
+      <c r="AE3" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="AD3" s="15" t="s">
+      <c r="AF3" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="AE3" s="15" t="s">
+      <c r="AG3" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="AF3" s="15" t="s">
+      <c r="AH3" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="AG3" s="15" t="s">
+      <c r="AI3" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="AH3" s="15" t="s">
+      <c r="AJ3" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="AI3" s="15" t="s">
+      <c r="AK3" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="AJ3" s="15" t="s">
+      <c r="AL3" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="AK3" s="15" t="s">
+      <c r="AM3" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="AL3" s="15" t="s">
+      <c r="AN3" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="AM3" s="15" t="s">
+      <c r="AO3" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="AN3" s="15" t="s">
+      <c r="AP3" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="AO3" s="15" t="s">
+      <c r="AQ3" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="AP3" s="15" t="s">
+      <c r="AR3" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="AQ3" s="15" t="s">
+      <c r="AS3" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="AR3" s="15" t="s">
+      <c r="AT3" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="AS3" s="15" t="s">
+      <c r="AU3" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="AT3" s="15" t="s">
+      <c r="AV3" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="AU3" s="15" t="s">
+      <c r="AW3" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="AV3" s="15" t="s">
+      <c r="AX3" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="AW3" s="15" t="s">
+      <c r="AY3" s="15" t="s">
         <v>76</v>
-      </c>
-      <c r="AX3" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="AY3" s="15" t="s">
-        <v>78</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="S1:U1"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="E1:H1"/>
-    <mergeCell ref="I1:L1"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="P1:R1"/>
     <mergeCell ref="AN1:AP1"/>
     <mergeCell ref="AQ1:AS1"/>
     <mergeCell ref="AT1:AV1"/>
@@ -9446,6 +9442,12 @@
     <mergeCell ref="AE1:AG1"/>
     <mergeCell ref="AH1:AJ1"/>
     <mergeCell ref="AK1:AM1"/>
+    <mergeCell ref="S1:U1"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="P1:R1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9464,7 +9466,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B1">
         <v>8</v>
